--- a/Output/Restoration_Prioritization_Output_SPRING_CHINOOK_for_WebMap_Table.xlsx
+++ b/Output/Restoration_Prioritization_Output_SPRING_CHINOOK_for_WebMap_Table.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="551">
   <si>
     <t xml:space="preserve">Reach Name</t>
   </si>
@@ -56,7 +56,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
+    <t xml:space="preserve">Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
   </si>
   <si>
     <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management, Water Quality Improvement</t>
@@ -68,10 +68,10 @@
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">ChannelStability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,Stability,Floodplain Connectivity,Off-Channel- Side-Channels</t>
+    <t xml:space="preserve">Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floodplain Connectivity,Off-Channel- Side-Channels</t>
   </si>
   <si>
     <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management</t>
@@ -89,10 +89,10 @@
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">ChannelStability,Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,Stability,Coarse Substrate,Floodplain Connectivity,Off-Channel- Side-Channels</t>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Substrate,Floodplain Connectivity,Off-Channel- Side-Channels</t>
   </si>
   <si>
     <t xml:space="preserve">Beaver Creek Lower 06</t>
@@ -101,16 +101,16 @@
     <t xml:space="preserve">Beaver Creek Lower 07</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">Beaver Creek Lower 09</t>
   </si>
   <si>
-    <t xml:space="preserve">ChannelStability,Cover- Wood,Pool Quantity and Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,Stability,Coarse Substrate,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+    <t xml:space="preserve">Cover- Wood,Pool Quantity and Quality,Riparian-CanopyCover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Substrate,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">Big Meadow Creek 01</t>
@@ -122,10 +122,10 @@
     <t xml:space="preserve">Big Meadow Creek</t>
   </si>
   <si>
-    <t xml:space="preserve">Cover- Wood,Riparian-Disturbance,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChannelStability,Flow- Summer Base Flow,Floodplain Connectivity</t>
+    <t xml:space="preserve">Cover- Wood,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow- Summer Base Flow,Floodplain Connectivity</t>
   </si>
   <si>
     <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management</t>
@@ -137,16 +137,22 @@
     <t xml:space="preserve">Coarse Substrate,Flow- Summer Base Flow,Floodplain Connectivity</t>
   </si>
   <si>
+    <t xml:space="preserve">Big Meadow Creek 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow- Summer Base Flow,Riparian</t>
+  </si>
+  <si>
     <t xml:space="preserve">Boulder Creek 01</t>
   </si>
   <si>
     <t xml:space="preserve">Boulder Creek</t>
   </si>
   <si>
-    <t xml:space="preserve">ChannelStability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,Stability,Pool Quantity and Quality,Riparian-CanopyCover,Riparian</t>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pool Quantity and Quality,Riparian-CanopyCover,Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">Chewuch River Doe 01</t>
@@ -170,6 +176,12 @@
     <t xml:space="preserve">Chewuch River Doe 03</t>
   </si>
   <si>
+    <t xml:space="preserve">Cover- Wood,Riparian-CanopyCover,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Substrate,Flow- Summer Base Flow,Floodplain Connectivity,Riparian</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chewuch River Doe 04</t>
   </si>
   <si>
@@ -179,12 +191,6 @@
     <t xml:space="preserve">Chewuch River Doe 05</t>
   </si>
   <si>
-    <t xml:space="preserve">Cover- Wood,Riparian-CanopyCover,Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flow- Summer Base Flow,Riparian</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management, Water Quality Improvement</t>
   </si>
   <si>
@@ -197,10 +203,10 @@
     <t xml:space="preserve">Chewuch River Doe 07</t>
   </si>
   <si>
-    <t xml:space="preserve">ChannelStability,Cover- Wood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,Stability,Coarse Substrate,Flow- Summer Base Flow,Floodplain Connectivity,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+    <t xml:space="preserve">Cover- Wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Substrate,Flow- Summer Base Flow,Floodplain Connectivity,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">Chewuch River Doe 08</t>
@@ -209,10 +215,10 @@
     <t xml:space="preserve">Chewuch River Doe 09</t>
   </si>
   <si>
-    <t xml:space="preserve">ChannelStability,Cover- Wood,Off-Channel- Side-Channels,Riparian-CanopyCover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,Stability,Flow- Summer Base Flow,Floodplain Connectivity,Pool Quantity and Quality,Riparian-Disturbance,Riparian</t>
+    <t xml:space="preserve">Cover- Wood,Off-Channel- Side-Channels,Riparian-CanopyCover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow- Summer Base Flow,Floodplain Connectivity,Pool Quantity and Quality,Riparian-Disturbance,Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">Chewuch River Pearrygin 01</t>
@@ -245,7 +251,10 @@
     <t xml:space="preserve">Chewuch River Pearrygin 05</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-CanopyCover</t>
+    <t xml:space="preserve">Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-CanopyCover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management, Water Quality Improvement</t>
   </si>
   <si>
     <t xml:space="preserve">Chewuch River Pearrygin 06</t>
@@ -257,7 +266,7 @@
     <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Riparian-CanopyCover,Temperature- Rearing</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian</t>
+    <t xml:space="preserve">Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">Chewuch River Pearrygin 08</t>
@@ -266,13 +275,10 @@
     <t xml:space="preserve">Flow- Summer Base Flow,Riparian-CanopyCover</t>
   </si>
   <si>
-    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management, Water Quality Improvement</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chewuch River Pearrygin 09</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian</t>
+    <t xml:space="preserve">Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">Chewuch River Pearrygin 10</t>
@@ -287,16 +293,10 @@
     <t xml:space="preserve">Chewuch River-Thirtymile Creek</t>
   </si>
   <si>
-    <t xml:space="preserve">ChannelStability,Off-Channel- Side-Channels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,Stability,Coarse Substrate,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chewuch River Thirtymile 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChannelStability</t>
+    <t xml:space="preserve">Off-Channel- Side-Channels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Substrate,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">Chewuch River Thirtymile 04</t>
@@ -335,7 +335,7 @@
     <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Rearing</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Floodplain Connectivity,PRCNT Fines and Embeddedness</t>
+    <t xml:space="preserve">Floodplain Connectivity,Riparian-CanopyCover,PRCNT Fines and Embeddedness</t>
   </si>
   <si>
     <t xml:space="preserve">Chiwawa River Lower 02</t>
@@ -344,7 +344,7 @@
     <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Temperature- Rearing</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+    <t xml:space="preserve">Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">Chiwawa River Lower 03</t>
@@ -392,49 +392,79 @@
     <t xml:space="preserve">Middle Chiwawa River</t>
   </si>
   <si>
-    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian,Temperature- Rearing</t>
+    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparian-CanopyCover,Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Water Quality Improvement</t>
   </si>
   <si>
+    <t xml:space="preserve">Chiwawa River Middle 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Substrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management, Upland Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Middle 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Pool Quantity and Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Upper 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Chiwawa River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Pool Quantity and Quality,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparian-CanopyCover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Water Quality Improvement</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chumstick Creek 01</t>
   </si>
   <si>
     <t xml:space="preserve">Chumstick Creek</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChannelStability,Stability,Coarse Substrate</t>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
   </si>
   <si>
     <t xml:space="preserve">Chumstick Creek 02</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChannelStability,Stability</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chumstick Creek 03</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChannelStability,Stability,Pool Quantity and Quality</t>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pool Quantity and Quality</t>
   </si>
   <si>
     <t xml:space="preserve">Chumstick Creek 05</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coarse Substrate</t>
+    <t xml:space="preserve">Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Substrate,Cover- Wood</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat River Lake 01</t>
@@ -449,31 +479,31 @@
     <t xml:space="preserve">Fry,Summer Rearing</t>
   </si>
   <si>
-    <t xml:space="preserve">Cover- Wood,Pool Quantity and Quality</t>
-  </si>
-  <si>
     <t xml:space="preserve">Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat River Lake 02</t>
   </si>
   <si>
-    <t xml:space="preserve">Cover- Wood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian-CanopyCover</t>
+    <t xml:space="preserve">Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian-CanopyCover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat River Lake 03</t>
   </si>
   <si>
+    <t xml:space="preserve">Entiat River Lake 04</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entiat River Lake 05</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,Cover- Wood,Floodplain Connectivity,Riparian-Disturbance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChannelStability,Stability,Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian-CanopyCover,Riparian</t>
+    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Riparian-Disturbance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian-CanopyCover,Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat River Lake 11</t>
@@ -497,7 +527,7 @@
     <t xml:space="preserve">Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Off-Channel- Side-Channels</t>
+    <t xml:space="preserve">Cover- Wood,Off-Channel- Side-Channels</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat River Mills 02</t>
@@ -539,7 +569,7 @@
     <t xml:space="preserve">Entiat River Mills 07</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">Flow- Summer Base Flow,Temperature- Rearing</t>
@@ -563,7 +593,7 @@
     <t xml:space="preserve">Entiat River Potato 02</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-CanopyCover</t>
+    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-CanopyCover</t>
   </si>
   <si>
     <t xml:space="preserve">Coarse Substrate,Flow- Summer Base Flow,Riparian-Disturbance,Riparian,PRCNT Fines and Embeddedness</t>
@@ -572,7 +602,7 @@
     <t xml:space="preserve">Entiat River Potato 03</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-CanopyCover,PRCNT Fines and Embeddedness</t>
+    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-CanopyCover,PRCNT Fines and Embeddedness</t>
   </si>
   <si>
     <t xml:space="preserve">Flow- Summer Base Flow,Riparian-Disturbance,Riparian</t>
@@ -584,19 +614,31 @@
     <t xml:space="preserve">Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-CanopyCover</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Coarse Substrate,Flow- Summer Base Flow,Floodplain Connectivity,Riparian,PRCNT Fines and Embeddedness</t>
+    <t xml:space="preserve">Coarse Substrate,Flow- Summer Base Flow,Floodplain Connectivity,Riparian,PRCNT Fines and Embeddedness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Potato 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-CanopyCover,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Modification, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management, Water Quality Improvement</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat River Potato 07</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat River Potato 08</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
+    <t xml:space="preserve">Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Restoration, Channel Modification, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management, Water Quality Improvement</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat River Preston 01</t>
@@ -605,9 +647,6 @@
     <t xml:space="preserve">Entiat River-Preston Creek</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
-  </si>
-  <si>
     <t xml:space="preserve">Entiat River Preston 02</t>
   </si>
   <si>
@@ -617,46 +656,43 @@
     <t xml:space="preserve">Cover- Wood,Riparian-Disturbance</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-CanopyCover,Riparian</t>
+    <t xml:space="preserve">Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-CanopyCover,Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat River Preston 04</t>
   </si>
   <si>
-    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Instream Flow Enhancement, Riparian Restoration and Management, Upland Management</t>
+    <t xml:space="preserve">Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat River Preston 05</t>
   </si>
   <si>
+    <t xml:space="preserve">Hancock Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River-Fawn Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
     <t xml:space="preserve">Icicle Creek Lower 01</t>
   </si>
   <si>
     <t xml:space="preserve">Lower Icicle Creek</t>
   </si>
   <si>
-    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Coarse Substrate</t>
-  </si>
-  <si>
     <t xml:space="preserve">Icicle Creek Lower 02</t>
   </si>
   <si>
-    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Temperature- Rearing</t>
+    <t xml:space="preserve">Temperature- Rearing</t>
   </si>
   <si>
     <t xml:space="preserve">Icicle Creek Lower 03</t>
   </si>
   <si>
-    <t xml:space="preserve">Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Floodplain Connectivity,Off-Channel- Side-Channels,Temperature- Rearing</t>
+    <t xml:space="preserve">Floodplain Connectivity,Off-Channel- Side-Channels,Temperature- Rearing</t>
   </si>
   <si>
     <t xml:space="preserve">Icicle Creek Lower 04</t>
@@ -665,15 +701,12 @@
     <t xml:space="preserve">Restore Reach Function,Restore Fish Passage</t>
   </si>
   <si>
-    <t xml:space="preserve">Stability,Coarse Substrate,Off-Channel- Side-Channels,Temperature- Rearing</t>
+    <t xml:space="preserve">Coarse Substrate,Off-Channel- Side-Channels,Temperature- Rearing</t>
   </si>
   <si>
     <t xml:space="preserve">Icicle Creek Lower 05</t>
   </si>
   <si>
-    <t xml:space="preserve">Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality</t>
-  </si>
-  <si>
     <t xml:space="preserve">Coarse Substrate,Flow- Summer Base Flow,Riparian-CanopyCover,Temperature- Rearing</t>
   </si>
   <si>
@@ -683,19 +716,13 @@
     <t xml:space="preserve">Lake Creek (Methow)</t>
   </si>
   <si>
-    <t xml:space="preserve">ChannelStability,Cover- Wood,Off-Channel- Side-Channels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,Stability,Flow- Summer Base Flow,Floodplain Connectivity,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+    <t xml:space="preserve">Flow- Summer Base Flow,Floodplain Connectivity,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">Lake Creek Methow 02</t>
   </si>
   <si>
-    <t xml:space="preserve">ChannelStability,Cover- Wood,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,Stability,Coarse Substrate,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality</t>
+    <t xml:space="preserve">Coarse Substrate,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality</t>
   </si>
   <si>
     <t xml:space="preserve">Little Wenatchee River Lower 02</t>
@@ -710,10 +737,10 @@
     <t xml:space="preserve">Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Temperature- Adult Holding</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Floodplain Connectivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management, Water Quality Improvement</t>
+    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management, Upland Management, Water Quality Improvement</t>
   </si>
   <si>
     <t xml:space="preserve">Little Wenatchee River Lower 03</t>
@@ -746,10 +773,7 @@
     <t xml:space="preserve">Little Wenatchee River Lower 06</t>
   </si>
   <si>
-    <t xml:space="preserve">Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Floodplain Connectivity,Temperature- Rearing,Temperature- Adult Spawning,Temperature- Adult Holding</t>
+    <t xml:space="preserve">Floodplain Connectivity,Riparian,Temperature- Rearing,Temperature- Adult Spawning,Temperature- Adult Holding</t>
   </si>
   <si>
     <t xml:space="preserve">Mad River Lower 01</t>
@@ -776,9 +800,6 @@
     <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,PRCNT Fines and Embeddedness</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,Stability,Floodplain Connectivity,Off-Channel- Side-Channels,Temperature- Rearing</t>
-  </si>
-  <si>
     <t xml:space="preserve">Methow River Alder 02</t>
   </si>
   <si>
@@ -788,18 +809,12 @@
     <t xml:space="preserve">Methow River Alder 04</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,Stability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
-  </si>
-  <si>
     <t xml:space="preserve">Methow River Alder 05</t>
   </si>
   <si>
     <t xml:space="preserve">Methow River Alder 06</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,Stability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-CanopyCover,Temperature- Rearing</t>
-  </si>
-  <si>
     <t xml:space="preserve">Riparian-Disturbance,Riparian</t>
   </si>
   <si>
@@ -818,18 +833,12 @@
     <t xml:space="preserve">Methow River-Alta Coulee</t>
   </si>
   <si>
-    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Coarse Substrate,Floodplain Connectivity,Off-Channel- Side-Channels,Temperature- Rearing</t>
+    <t xml:space="preserve">Coarse Substrate,Floodplain Connectivity,Off-Channel- Side-Channels,Temperature- Rearing</t>
   </si>
   <si>
     <t xml:space="preserve">Methow River Alta Coulee 03</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Coarse Substrate,Floodplain Connectivity,Off-Channel- Side-Channels</t>
-  </si>
-  <si>
     <t xml:space="preserve">Methow River Alta Coulee 04</t>
   </si>
   <si>
@@ -839,16 +848,13 @@
     <t xml:space="preserve">Methow River Fawn 01</t>
   </si>
   <si>
-    <t xml:space="preserve">Methow River-Fawn Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian</t>
+    <t xml:space="preserve">Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">Methow River Fawn 02</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian</t>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">Methow River Fawn 03</t>
@@ -857,40 +863,40 @@
     <t xml:space="preserve">Floodplain Connectivity,Riparian-CanopyCover,Temperature- Rearing</t>
   </si>
   <si>
-    <t xml:space="preserve">ChannelStability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian</t>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Fawn 04</t>
   </si>
   <si>
     <t xml:space="preserve">Methow River Fawn 05</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
+    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">Methow River Fawn 06</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-CanopyCover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChannelStability,Stability,Riparian-Disturbance,Riparian</t>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-CanopyCover</t>
   </si>
   <si>
     <t xml:space="preserve">Methow River Fawn 07</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-CanopyCover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChannelStability,Stability,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian</t>
+    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-CanopyCover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">Methow River Fawn 08</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-CanopyCover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChannelStability,Stability,Pool Quantity and Quality,Riparian-Disturbance,Riparian</t>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-CanopyCover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pool Quantity and Quality,Riparian-Disturbance,Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">Methow River Fawn 09</t>
@@ -899,16 +905,13 @@
     <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Floodplain Connectivity,Pool Quantity and Quality</t>
+    <t xml:space="preserve">Floodplain Connectivity,Pool Quantity and Quality</t>
   </si>
   <si>
     <t xml:space="preserve">Methow River Fawn 10</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChannelStability,Stability,Off-Channel- Side-Channels</t>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">Methow River Fawn 11</t>
@@ -944,22 +947,22 @@
     <t xml:space="preserve">Methow River-Rattlesnake Creek</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Floodplain Connectivity,Riparian-Disturbance,Riparian</t>
+    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Riparian-Disturbance,Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">Methow River Rattlesnake 02</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">Methow River Rattlesnake 03</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Riparian-Disturbance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChannelStability,Stability,Off-Channel- Side-Channels,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Riparian-Disturbance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off-Channel- Side-Channels,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
   </si>
   <si>
     <t xml:space="preserve">Methow River Rattlesnake 04</t>
@@ -968,6 +971,12 @@
     <t xml:space="preserve">Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
   </si>
   <si>
+    <t xml:space="preserve">Methow River Rattlesnake 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Riparian-CanopyCover</t>
+  </si>
+  <si>
     <t xml:space="preserve">Methow River Texas 01</t>
   </si>
   <si>
@@ -983,7 +992,7 @@
     <t xml:space="preserve">Methow River Texas 04</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Coarse Substrate,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Temperature- Rearing</t>
+    <t xml:space="preserve">Coarse Substrate,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Temperature- Rearing</t>
   </si>
   <si>
     <t xml:space="preserve">Methow River Thompson 01</t>
@@ -995,22 +1004,19 @@
     <t xml:space="preserve">Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality</t>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality</t>
   </si>
   <si>
     <t xml:space="preserve">Methow River Thompson 02</t>
   </si>
   <si>
-    <t xml:space="preserve">Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
   </si>
   <si>
     <t xml:space="preserve">Methow River Thompson 03</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
   </si>
   <si>
     <t xml:space="preserve">Methow River Thompson 04</t>
@@ -1025,19 +1031,31 @@
     <t xml:space="preserve">Flow- Summer Base Flow,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
+    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
   </si>
   <si>
     <t xml:space="preserve">Methow River Thompson 07</t>
   </si>
   <si>
+    <t xml:space="preserve">Bank Restoration, Channel Modification, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Upland Management</t>
+  </si>
+  <si>
     <t xml:space="preserve">Methow River Thompson 08</t>
   </si>
   <si>
     <t xml:space="preserve">Methow River Thompson 09</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian,Temperature- Rearing</t>
+    <t xml:space="preserve">Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mill Creek Peshastin 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Peshastin Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floodplain Connectivity</t>
   </si>
   <si>
     <t xml:space="preserve">Mission Creek 01</t>
@@ -1058,10 +1076,10 @@
     <t xml:space="preserve">Mission Creek 07</t>
   </si>
   <si>
-    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Floodplain Connectivity,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-CanopyCover,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floodplain Connectivity,Riparian-Disturbance,Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">Nason Creek Lower 04</t>
@@ -1076,7 +1094,7 @@
     <t xml:space="preserve">Pool Quantity and Quality,Temperature- Rearing,Temperature- Adult Spawning,Temperature- Adult Holding</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">Nason Creek Lower 05</t>
@@ -1085,25 +1103,28 @@
     <t xml:space="preserve">Pool Quantity and Quality,Riparian-CanopyCover,Temperature- Rearing,Temperature- Adult Spawning,Temperature- Adult Holding</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian</t>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">Nason Creek Lower 06</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,PRCNT Fines and Embeddedness</t>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,PRCNT Fines and Embeddedness</t>
   </si>
   <si>
     <t xml:space="preserve">Nason Creek Lower 07</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+    <t xml:space="preserve">Nason Creek Lower 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing,Temperature- Adult Spawning,Temperature- Adult Holding</t>
   </si>
   <si>
     <t xml:space="preserve">Nason Creek Lower 09</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-CanopyCover,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Temperature- Adult Holding</t>
+    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-CanopyCover,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Temperature- Adult Holding</t>
   </si>
   <si>
     <t xml:space="preserve">Nason Creek Lower 10</t>
@@ -1112,10 +1133,10 @@
     <t xml:space="preserve">Nason Creek Lower 11</t>
   </si>
   <si>
-    <t xml:space="preserve">Floodplain Connectivity,Pool Quantity and Quality,Riparian-Disturbance,Temperature- Rearing,Temperature- Adult Spawning,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Coarse Substrate,Off-Channel- Side-Channels,Riparian-CanopyCover,Riparian,PRCNT Fines and Embeddedness</t>
+    <t xml:space="preserve">Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing,Temperature- Adult Spawning,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,PRCNT Fines and Embeddedness</t>
   </si>
   <si>
     <t xml:space="preserve">Nason Creek Lower 12</t>
@@ -1124,7 +1145,7 @@
     <t xml:space="preserve">Cover- Wood,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing,Temperature- Adult Spawning,Temperature- Adult Holding</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Coarse Substrate,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,PRCNT Fines and Embeddedness</t>
+    <t xml:space="preserve">Coarse Substrate,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,PRCNT Fines and Embeddedness</t>
   </si>
   <si>
     <t xml:space="preserve">Nason Creek Lower 13</t>
@@ -1133,10 +1154,7 @@
     <t xml:space="preserve">Nason Creek Lower 14</t>
   </si>
   <si>
-    <t xml:space="preserve">Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing,Temperature- Adult Spawning,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Coarse Substrate,Floodplain Connectivity,PRCNT Fines and Embeddedness</t>
+    <t xml:space="preserve">Coarse Substrate,Floodplain Connectivity,PRCNT Fines and Embeddedness</t>
   </si>
   <si>
     <t xml:space="preserve">Nason Creek Lower 15</t>
@@ -1145,21 +1163,15 @@
     <t xml:space="preserve">Temperature- Rearing,Temperature- Adult Spawning,Temperature- Adult Holding</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian,PRCNT Fines and Embeddedness</t>
+    <t xml:space="preserve">Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,PRCNT Fines and Embeddedness</t>
   </si>
   <si>
     <t xml:space="preserve">Peshastin Creek Lower 01</t>
   </si>
   <si>
-    <t xml:space="preserve">Lower Peshastin Creek</t>
-  </si>
-  <si>
     <t xml:space="preserve">Peshastin Creek Lower 02</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
-  </si>
-  <si>
     <t xml:space="preserve">Peshastin Creek Lower 03</t>
   </si>
   <si>
@@ -1172,22 +1184,22 @@
     <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Pool Quantity and Quality,Riparian-CanopyCover,Temperature- Rearing</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Coarse Substrate,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian</t>
+    <t xml:space="preserve">Coarse Substrate,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">Peshastin Creek Lower 06</t>
   </si>
   <si>
-    <t xml:space="preserve">Flow- Summer Base Flow,Floodplain Connectivity,Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChannelStability,Coarse Substrate,Cover- Wood,Pool Quantity and Quality,Riparian-CanopyCover</t>
+    <t xml:space="preserve">Flow- Summer Base Flow,Floodplain Connectivity,Riparian-CanopyCover,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Substrate,Cover- Wood,Pool Quantity and Quality,Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">Peshastin Creek Lower 07</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
   </si>
   <si>
     <t xml:space="preserve">Coarse Substrate,Off-Channel- Side-Channels,Pool Quantity and Quality</t>
@@ -1196,7 +1208,22 @@
     <t xml:space="preserve">Peshastin Creek Lower 08</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
+    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off-Channel- Side-Channels,Riparian-CanopyCover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stormy Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,PRCNT Fines and Embeddedness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity</t>
   </si>
   <si>
     <t xml:space="preserve">Twisp River Lower 01</t>
@@ -1208,19 +1235,13 @@
     <t xml:space="preserve">Twisp River Lower 02</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,Flow- Summer Base Flow,Floodplain Connectivity,Riparian-CanopyCover,Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChannelStability,Stability,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian</t>
+    <t xml:space="preserve">Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">Twisp River Lower 03</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Pool Quantity and Quality,Riparian-CanopyCover,Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChannelStability,Stability,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian</t>
+    <t xml:space="preserve">Off-Channel- Side-Channels,Riparian-Disturbance,Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">Twisp River Lower 04</t>
@@ -1238,7 +1259,7 @@
     <t xml:space="preserve">Twisp River Lower 07</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,PRCNT Fines and Embeddedness</t>
+    <t xml:space="preserve">Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,PRCNT Fines and Embeddedness</t>
   </si>
   <si>
     <t xml:space="preserve">Twisp River Lower 08</t>
@@ -1247,7 +1268,7 @@
     <t xml:space="preserve">Cover- Wood,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality</t>
+    <t xml:space="preserve">Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality</t>
   </si>
   <si>
     <t xml:space="preserve">Twisp River Lower 09</t>
@@ -1256,49 +1277,43 @@
     <t xml:space="preserve">Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,Coarse Substrate,Flow- Summer Base Flow,PRCNT Fines and Embeddedness</t>
+    <t xml:space="preserve">Coarse Substrate,Flow- Summer Base Flow,PRCNT Fines and Embeddedness</t>
   </si>
   <si>
     <t xml:space="preserve">Twisp River Lower 10</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian</t>
+    <t xml:space="preserve">Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">Twisp River Lower 11</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Coarse Substrate,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,PRCNT Fines and Embeddedness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 01</t>
+    <t xml:space="preserve">Coarse Substrate,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,PRCNT Fines and Embeddedness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 03</t>
   </si>
   <si>
     <t xml:space="preserve">Middle Twisp River</t>
   </si>
   <si>
-    <t xml:space="preserve">Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChannelStability,Coarse Substrate,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+    <t xml:space="preserve">Coarse Substrate,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">Twisp River Middle 04</t>
   </si>
   <si>
+    <t xml:space="preserve">Coarse Substrate,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
     <t xml:space="preserve">Twisp River Middle 05</t>
   </si>
   <si>
     <t xml:space="preserve">Twisp River Middle 07</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-CanopyCover</t>
+    <t xml:space="preserve">Floodplain Connectivity,Off-Channel- Side-Channels,Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">Twisp River Middle 08</t>
@@ -1310,6 +1325,12 @@
     <t xml:space="preserve">Upper Twisp River</t>
   </si>
   <si>
+    <t xml:space="preserve">Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-CanopyCover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wenatchee River Beaver 02</t>
   </si>
   <si>
@@ -1325,10 +1346,10 @@
     <t xml:space="preserve">Wenatchee River Beaver 03</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,Flow- Summer Base Flow,Riparian-Disturbance,Temperature- Adult Spawning,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChannelStability,Stability,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
+    <t xml:space="preserve">Flow- Summer Base Flow,Riparian-Disturbance,Temperature- Adult Spawning,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-CanopyCover,Riparian,Temperature- Rearing</t>
   </si>
   <si>
     <t xml:space="preserve">Wenatchee River Beaver 04</t>
@@ -1337,19 +1358,19 @@
     <t xml:space="preserve">Wenatchee River Beaver 05</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Temperature- Adult Spawning,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coarse Substrate,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-CanopyCover,Temperature- Adult Spawning,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Substrate,Pool Quantity and Quality,Riparian-Disturbance,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
   </si>
   <si>
     <t xml:space="preserve">Wenatchee River Beaver 06</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Adult Spawning,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChannelStability,Stability,Pool Quantity and Quality,Temperature- Rearing</t>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature- Adult Spawning,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pool Quantity and Quality,Temperature- Rearing</t>
   </si>
   <si>
     <t xml:space="preserve">Wenatchee River Beaver 07</t>
@@ -1361,7 +1382,7 @@
     <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Pool Quantity and Quality,Riparian-Disturbance,Temperature- Rearing,Temperature- Adult Spawning,Temperature- Adult Holding</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Off-Channel- Side-Channels,Riparian-CanopyCover,Riparian</t>
+    <t xml:space="preserve">Off-Channel- Side-Channels,Riparian-CanopyCover,Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">Wenatchee River Beaver 09</t>
@@ -1370,34 +1391,25 @@
     <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing,Temperature- Adult Spawning,Temperature- Adult Holding</t>
   </si>
   <si>
-    <t xml:space="preserve">ChannelStability,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wenatchee River Beaver 10</t>
   </si>
   <si>
     <t xml:space="preserve">Flow- Summer Base Flow,Temperature- Rearing,Temperature- Adult Spawning,Temperature- Adult Holding</t>
   </si>
   <si>
-    <t xml:space="preserve">ChannelStability,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,PRCNT Fines and Embeddedness</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wenatchee River Beaver 11</t>
   </si>
   <si>
-    <t xml:space="preserve">ChannelStability,Cover- Wood,Flow- Summer Base Flow,Temperature- Rearing,Temperature- Adult Spawning,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stability,Coarse Substrate,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,PRCNT Fines and Embeddedness</t>
+    <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Temperature- Rearing,Temperature- Adult Spawning,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Substrate,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,PRCNT Fines and Embeddedness</t>
   </si>
   <si>
     <t xml:space="preserve">Wenatchee River Beaver 12</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,Cover- Wood,Flow- Summer Base Flow,Temperature- Rearing,Temperature- Adult Spawning,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChannelStability,Stability,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+    <t xml:space="preserve">Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">Wenatchee River Derby 01</t>
@@ -1409,18 +1421,12 @@
     <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian-CanopyCover,Temperature- Rearing</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,Pool Quantity and Quality,Riparian-Disturbance,Riparian</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wenatchee River Derby 02</t>
   </si>
   <si>
     <t xml:space="preserve">Cover- Wood,Off-Channel- Side-Channels,Riparian-CanopyCover,Temperature- Rearing</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wenatchee River Derby 03</t>
   </si>
   <si>
@@ -1445,22 +1451,16 @@
     <t xml:space="preserve">Wenatchee River-Tumwater Canyon</t>
   </si>
   <si>
-    <t xml:space="preserve">ChannelStability,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wenatchee River Tumwater 01</t>
   </si>
   <si>
-    <t xml:space="preserve">ChannelStability,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian</t>
+    <t xml:space="preserve">Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-Disturbance,Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">Wenatchee River Tumwater 02</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,Cover- Wood,Flow- Summer Base Flow,Riparian-CanopyCover,Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stability,Coarse Substrate,Pool Quantity and Quality,Riparian-Disturbance,Riparian</t>
+    <t xml:space="preserve">Coarse Substrate,Pool Quantity and Quality,Riparian-Disturbance,Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">Wenatchee River Tumwater 03</t>
@@ -1475,7 +1475,7 @@
     <t xml:space="preserve">Wenatchee River Tumwater 05</t>
   </si>
   <si>
-    <t xml:space="preserve">Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
+    <t xml:space="preserve">Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-CanopyCover,Temperature- Rearing</t>
   </si>
   <si>
     <t xml:space="preserve">Wenatchee River Tumwater 06</t>
@@ -1484,12 +1484,12 @@
     <t xml:space="preserve">Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-CanopyCover,Temperature- Rearing</t>
   </si>
   <si>
-    <t xml:space="preserve">Coarse Substrate,Off-Channel- Side-Channels,Riparian-Disturbance,Riparian</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wenatchee River Tumwater 07</t>
   </si>
   <si>
+    <t xml:space="preserve">Coarse Substrate,Off-Channel- Side-Channels</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wenatchee River Tumwater 08</t>
   </si>
   <si>
@@ -1508,16 +1508,13 @@
     <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Coarse Substrate,Temperature- Rearing,Temperature- Adult Spawning</t>
+    <t xml:space="preserve">Coarse Substrate,Temperature- Rearing,Temperature- Adult Spawning</t>
   </si>
   <si>
     <t xml:space="preserve">White River Lower 02</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coarse Substrate,Temperature- Rearing,Temperature- Adult Spawning</t>
+    <t xml:space="preserve">Coarse Substrate,Riparian-CanopyCover,Temperature- Rearing,Temperature- Adult Spawning</t>
   </si>
   <si>
     <t xml:space="preserve">White River Lower 03</t>
@@ -1526,9 +1523,6 @@
     <t xml:space="preserve">White River Lower 04</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Coarse Substrate,Riparian-CanopyCover,Temperature- Rearing,Temperature- Adult Spawning</t>
-  </si>
-  <si>
     <t xml:space="preserve">White River Lower 05</t>
   </si>
   <si>
@@ -1541,13 +1535,22 @@
     <t xml:space="preserve">Off-Channel- Side-Channels,Riparian-CanopyCover,Temperature- Adult Spawning</t>
   </si>
   <si>
-    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Floodplain Reconnection, Instream Flow Enhancement, Riparian Restoration and Management, Side Channel and Off-Channel Habitat Restoration, Water Quality Improvement</t>
+    <t xml:space="preserve">White River Lower 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparian-CanopyCover,Temperature- Adult Spawning</t>
   </si>
   <si>
     <t xml:space="preserve">White River Lower 08</t>
   </si>
   <si>
-    <t xml:space="preserve">Cover- Wood,Riparian-CanopyCover,PRCNT Fines and Embeddedness,Temperature- Adult Spawning</t>
+    <t xml:space="preserve">Cover- Wood,Riparian,PRCNT Fines and Embeddedness,Temperature- Adult Spawning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature- Rearing,Temperature- Adult Spawning</t>
   </si>
   <si>
     <t xml:space="preserve">Wolf Creek 01</t>
@@ -1556,18 +1559,12 @@
     <t xml:space="preserve">Wolf Creek</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover- Wood,Flow- Summer Base Flow,Floodplain Connectivity,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian-CanopyCover</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wolf Creek 02</t>
   </si>
   <si>
     <t xml:space="preserve">Flow- Summer Base Flow,Pool Quantity and Quality</t>
   </si>
   <si>
-    <t xml:space="preserve">Cover- Wood,Off-Channel- Side-Channels,Riparian-CanopyCover</t>
-  </si>
-  <si>
     <t xml:space="preserve">Brennegan Creek 01</t>
   </si>
   <si>
@@ -1580,27 +1577,15 @@
     <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management, Upland Management</t>
   </si>
   <si>
-    <t xml:space="preserve">Entiat River Lake 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Off-Channel- Side-Channels,Flow- Summer Base Flow</t>
+    <t xml:space="preserve">Entiat River Lake 06</t>
   </si>
   <si>
     <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Instream Flow Enhancement, Riparian Restoration and Management, Upland Management</t>
   </si>
   <si>
-    <t xml:space="preserve">Entiat River Lake 06</t>
-  </si>
-  <si>
     <t xml:space="preserve">Entiat River Lake 07</t>
   </si>
   <si>
-    <t xml:space="preserve">Off-Channel- Side-Channels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Riparian Restoration and Management</t>
-  </si>
-  <si>
     <t xml:space="preserve">Entiat River Lake 08</t>
   </si>
   <si>
@@ -1619,90 +1604,57 @@
     <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Riparian Restoration and Management, Water Quality Improvement</t>
   </si>
   <si>
-    <t xml:space="preserve">Entiat River Potato 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Floodplain Connectivity,Off-Channel- Side-Channels,Flow- Summer Base Flow,Temperature- Rearing</t>
+    <t xml:space="preserve">Little Wenatchee River Lower 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature- Adult Spawning,Pool Quantity and Quality,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Lower 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature- Adult Spawning,Temperature- Rearing,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floodplain Connectivity,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Upland Management, Water Quality Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRCNT Fines and Embeddedness,Floodplain Connectivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Beaver 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,Summer Rearing,Holding and Maturation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature- Adult Spawning,Flow- Summer Base Flow,Temperature- Rearing,Temperature- Adult Holding</t>
   </si>
   <si>
     <t xml:space="preserve">Channel Modification, Instream Flow Enhancement, Upland Management, Water Quality Improvement</t>
   </si>
   <si>
-    <t xml:space="preserve">Little Wenatchee River Lower 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature- Adult Spawning,Pool Quantity and Quality,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Lower 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature- Adult Spawning,Temperature- Rearing,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Floodplain Connectivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Floodplain Connectivity,Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Upland Management, Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRCNT Fines and Embeddedness,Floodplain Connectivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature- Adult Spawning,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Floodplain Connectivity,Flow- Summer Base Flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Instream Flow Enhancement, Upland Management, Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stormy Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRCNT Fines and Embeddedness,Off-Channel- Side-Channels,Pool Quantity and Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank Restoration, Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Instream Flow Enhancement, Riparian Restoration and Management, Upland Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenatchee River Beaver 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation,Summer Rearing,Holding and Maturation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature- Adult Spawning,Flow- Summer Base Flow,Temperature- Rearing,Temperature- Adult Holding</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wenatchee River Beaver 13</t>
   </si>
   <si>
@@ -1713,15 +1665,6 @@
   </si>
   <si>
     <t xml:space="preserve">Channel Complexity Restoration, Channel Modification, Fine Sediment Management, Instream Flow Enhancement, Riparian Restoration and Management, Upland Management, Water Quality Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White River Lower 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature- Adult Spawning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White River Lower 09</t>
   </si>
 </sst>
 </file>
@@ -2308,7 +2251,7 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F10"/>
       <c r="G10" t="s">
@@ -2335,7 +2278,7 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F11"/>
       <c r="G11" t="s">
@@ -2353,10 +2296,10 @@
         <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -2366,10 +2309,10 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I12" t="s">
         <v>20</v>
@@ -2377,67 +2320,67 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F13"/>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F14"/>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
@@ -2447,51 +2390,51 @@
       </c>
       <c r="F15"/>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F16"/>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I16" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -2501,13 +2444,13 @@
       </c>
       <c r="F17"/>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I17" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
@@ -2518,23 +2461,23 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F18"/>
       <c r="G18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" t="s">
         <v>59</v>
-      </c>
-      <c r="I18" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -2545,7 +2488,7 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
@@ -2555,24 +2498,24 @@
       </c>
       <c r="F19"/>
       <c r="G19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" t="s">
         <v>61</v>
       </c>
-      <c r="H19" t="s">
-        <v>62</v>
-      </c>
       <c r="I19" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
@@ -2582,10 +2525,10 @@
       </c>
       <c r="F20"/>
       <c r="G20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I20" t="s">
         <v>20</v>
@@ -2593,26 +2536,26 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F21"/>
       <c r="G21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I21" t="s">
         <v>20</v>
@@ -2620,57 +2563,55 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22"/>
+      <c r="G22" t="s">
         <v>67</v>
       </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="H22" t="s">
         <v>68</v>
       </c>
-      <c r="D22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" t="s">
-        <v>71</v>
-      </c>
       <c r="I22" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E23" t="s">
         <v>24</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I23" t="s">
         <v>15</v>
@@ -2678,31 +2619,31 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E24" t="s">
         <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I24" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -2713,54 +2654,54 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H25" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G26" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" t="s">
         <v>76</v>
       </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" t="s">
-        <v>70</v>
-      </c>
-      <c r="G26" t="s">
-        <v>47</v>
-      </c>
-      <c r="H26" t="s">
-        <v>77</v>
-      </c>
       <c r="I26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27">
@@ -2771,54 +2712,54 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I27" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" t="s">
         <v>79</v>
       </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="I28" t="s">
         <v>80</v>
-      </c>
-      <c r="H28" t="s">
-        <v>81</v>
-      </c>
-      <c r="I28" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="29">
@@ -2829,25 +2770,25 @@
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E29" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="H29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I29" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">
@@ -2858,25 +2799,25 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E30" t="s">
         <v>24</v>
       </c>
       <c r="F30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G30" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s">
         <v>86</v>
       </c>
       <c r="I30" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
@@ -2887,92 +2828,94 @@
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G31" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H31" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H32" t="s">
         <v>88</v>
       </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" t="s">
-        <v>70</v>
-      </c>
-      <c r="G32" t="s">
-        <v>80</v>
-      </c>
-      <c r="H32" t="s">
-        <v>86</v>
-      </c>
       <c r="I32" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E33" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33"/>
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>72</v>
+      </c>
       <c r="G33" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H33" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I33" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
@@ -2982,10 +2925,10 @@
       </c>
       <c r="F34"/>
       <c r="G34" t="s">
+        <v>93</v>
+      </c>
+      <c r="H34" t="s">
         <v>94</v>
-      </c>
-      <c r="H34" t="s">
-        <v>92</v>
       </c>
       <c r="I34" t="s">
         <v>20</v>
@@ -2999,7 +2942,7 @@
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
@@ -3056,7 +2999,7 @@
         <v>104</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E37" t="s">
         <v>13</v>
@@ -3085,7 +3028,7 @@
         <v>104</v>
       </c>
       <c r="D38" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E38" t="s">
         <v>13</v>
@@ -3100,7 +3043,7 @@
         <v>110</v>
       </c>
       <c r="I38" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39">
@@ -3114,7 +3057,7 @@
         <v>104</v>
       </c>
       <c r="D39" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E39" t="s">
         <v>24</v>
@@ -3129,7 +3072,7 @@
         <v>113</v>
       </c>
       <c r="I39" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40">
@@ -3143,7 +3086,7 @@
         <v>104</v>
       </c>
       <c r="D40" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E40" t="s">
         <v>17</v>
@@ -3158,7 +3101,7 @@
         <v>101</v>
       </c>
       <c r="I40" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41">
@@ -3172,7 +3115,7 @@
         <v>104</v>
       </c>
       <c r="D41" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E41" t="s">
         <v>17</v>
@@ -3201,10 +3144,10 @@
         <v>104</v>
       </c>
       <c r="D42" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F42" t="s">
         <v>105</v>
@@ -3230,7 +3173,7 @@
         <v>104</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E43" t="s">
         <v>24</v>
@@ -3262,32 +3205,34 @@
         <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F44"/>
       <c r="G44" t="s">
         <v>126</v>
       </c>
-      <c r="H44"/>
+      <c r="H44" t="s">
+        <v>127</v>
+      </c>
       <c r="I44" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B45" t="s">
         <v>34</v>
       </c>
       <c r="C45" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F45"/>
       <c r="G45" t="s">
@@ -3297,18 +3242,18 @@
         <v>131</v>
       </c>
       <c r="I45" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B46" t="s">
         <v>34</v>
       </c>
       <c r="C46" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
@@ -3318,24 +3263,24 @@
       </c>
       <c r="F46"/>
       <c r="G46" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H46" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="I46" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B47" t="s">
         <v>34</v>
       </c>
       <c r="C47" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
@@ -3345,37 +3290,37 @@
       </c>
       <c r="F47"/>
       <c r="G47" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H47" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I47" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B48" t="s">
         <v>34</v>
       </c>
       <c r="C48" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F48"/>
       <c r="G48" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H48" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I48" t="s">
         <v>15</v>
@@ -3383,89 +3328,81 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" t="s">
         <v>142</v>
       </c>
-      <c r="C49" t="s">
-        <v>143</v>
-      </c>
       <c r="D49" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" t="s">
-        <v>144</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F49"/>
       <c r="G49" t="s">
-        <v>145</v>
-      </c>
-      <c r="H49" t="s">
-        <v>146</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="H49"/>
       <c r="I49" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>145</v>
+      </c>
+      <c r="B50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" t="s">
+        <v>142</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50"/>
+      <c r="G50" t="s">
+        <v>146</v>
+      </c>
+      <c r="H50" t="s">
         <v>147</v>
       </c>
-      <c r="B50" t="s">
-        <v>142</v>
-      </c>
-      <c r="C50" t="s">
-        <v>143</v>
-      </c>
-      <c r="D50" t="s">
-        <v>69</v>
-      </c>
-      <c r="E50" t="s">
-        <v>17</v>
-      </c>
-      <c r="F50" t="s">
-        <v>144</v>
-      </c>
-      <c r="G50" t="s">
-        <v>148</v>
-      </c>
-      <c r="H50" t="s">
-        <v>149</v>
-      </c>
       <c r="I50" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>148</v>
+      </c>
+      <c r="B51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" t="s">
+        <v>142</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51"/>
+      <c r="G51" t="s">
+        <v>149</v>
+      </c>
+      <c r="H51" t="s">
         <v>150</v>
       </c>
-      <c r="B51" t="s">
-        <v>142</v>
-      </c>
-      <c r="C51" t="s">
-        <v>143</v>
-      </c>
-      <c r="D51" t="s">
-        <v>69</v>
-      </c>
-      <c r="E51" t="s">
-        <v>24</v>
-      </c>
-      <c r="F51" t="s">
-        <v>144</v>
-      </c>
-      <c r="G51" t="s">
-        <v>148</v>
-      </c>
-      <c r="H51" t="s">
-        <v>149</v>
-      </c>
       <c r="I51" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
@@ -3473,196 +3410,196 @@
         <v>151</v>
       </c>
       <c r="B52" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C52" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D52" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E52" t="s">
         <v>13</v>
       </c>
       <c r="F52" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="G52" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="H52" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I52" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" t="s">
+        <v>152</v>
+      </c>
+      <c r="C53" t="s">
+        <v>153</v>
+      </c>
+      <c r="D53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" t="s">
         <v>154</v>
       </c>
-      <c r="B53" t="s">
-        <v>142</v>
-      </c>
-      <c r="C53" t="s">
-        <v>143</v>
-      </c>
-      <c r="D53" t="s">
-        <v>69</v>
-      </c>
-      <c r="E53" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" t="s">
-        <v>144</v>
-      </c>
       <c r="G53" t="s">
-        <v>155</v>
+        <v>63</v>
       </c>
       <c r="H53" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I53" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54" t="s">
+        <v>153</v>
+      </c>
+      <c r="D54" t="s">
+        <v>71</v>
+      </c>
+      <c r="E54" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" t="s">
+        <v>154</v>
+      </c>
+      <c r="G54" t="s">
+        <v>63</v>
+      </c>
+      <c r="H54" t="s">
         <v>157</v>
       </c>
-      <c r="B54" t="s">
-        <v>142</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="I54" t="s">
         <v>158</v>
-      </c>
-      <c r="D54" t="s">
-        <v>69</v>
-      </c>
-      <c r="E54" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" t="s">
-        <v>159</v>
-      </c>
-      <c r="G54" t="s">
-        <v>160</v>
-      </c>
-      <c r="H54" t="s">
-        <v>161</v>
-      </c>
-      <c r="I54" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B55" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C55" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D55" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E55" t="s">
         <v>17</v>
       </c>
       <c r="F55" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G55" t="s">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="H55" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I55" t="s">
-        <v>15</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B56" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C56" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D56" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E56" t="s">
         <v>17</v>
       </c>
       <c r="F56" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G56" t="s">
+        <v>162</v>
+      </c>
+      <c r="H56" t="s">
         <v>163</v>
       </c>
-      <c r="H56" t="s">
-        <v>166</v>
-      </c>
       <c r="I56" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B57" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C57" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D57" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E57" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F57" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G57" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H57" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I57" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>167</v>
+      </c>
+      <c r="B58" t="s">
+        <v>152</v>
+      </c>
+      <c r="C58" t="s">
+        <v>168</v>
+      </c>
+      <c r="D58" t="s">
+        <v>71</v>
+      </c>
+      <c r="E58" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" t="s">
+        <v>169</v>
+      </c>
+      <c r="G58" t="s">
         <v>170</v>
-      </c>
-      <c r="B58" t="s">
-        <v>142</v>
-      </c>
-      <c r="C58" t="s">
-        <v>158</v>
-      </c>
-      <c r="D58" t="s">
-        <v>69</v>
-      </c>
-      <c r="E58" t="s">
-        <v>24</v>
-      </c>
-      <c r="F58" t="s">
-        <v>159</v>
-      </c>
-      <c r="G58" t="s">
-        <v>83</v>
       </c>
       <c r="H58" t="s">
         <v>171</v>
@@ -3676,25 +3613,25 @@
         <v>172</v>
       </c>
       <c r="B59" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C59" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D59" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E59" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F59" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="G59" t="s">
-        <v>83</v>
+        <v>173</v>
       </c>
       <c r="H59" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I59" t="s">
         <v>15</v>
@@ -3702,25 +3639,25 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B60" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C60" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D60" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E60" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F60" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="G60" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H60" t="s">
         <v>176</v>
@@ -3734,25 +3671,25 @@
         <v>177</v>
       </c>
       <c r="B61" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C61" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D61" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E61" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F61" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="G61" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H61" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I61" t="s">
         <v>15</v>
@@ -3760,31 +3697,31 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B62" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C62" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D62" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E62" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F62" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="G62" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
       <c r="H62" t="s">
         <v>181</v>
       </c>
       <c r="I62" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
@@ -3792,140 +3729,144 @@
         <v>182</v>
       </c>
       <c r="B63" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C63" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D63" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E63" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F63" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="G63" t="s">
+        <v>86</v>
+      </c>
+      <c r="H63" t="s">
         <v>183</v>
       </c>
-      <c r="H63" t="s">
-        <v>184</v>
-      </c>
       <c r="I63" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>184</v>
+      </c>
+      <c r="B64" t="s">
+        <v>152</v>
+      </c>
+      <c r="C64" t="s">
+        <v>168</v>
+      </c>
+      <c r="D64" t="s">
+        <v>71</v>
+      </c>
+      <c r="E64" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" t="s">
+        <v>169</v>
+      </c>
+      <c r="G64" t="s">
         <v>185</v>
       </c>
-      <c r="B64" t="s">
-        <v>142</v>
-      </c>
-      <c r="C64" t="s">
-        <v>180</v>
-      </c>
-      <c r="D64" t="s">
-        <v>69</v>
-      </c>
-      <c r="E64" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" t="s">
-        <v>105</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>186</v>
       </c>
-      <c r="H64" t="s">
-        <v>187</v>
-      </c>
       <c r="I64" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>187</v>
+      </c>
+      <c r="B65" t="s">
+        <v>152</v>
+      </c>
+      <c r="C65" t="s">
+        <v>168</v>
+      </c>
+      <c r="D65" t="s">
+        <v>71</v>
+      </c>
+      <c r="E65" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" t="s">
+        <v>169</v>
+      </c>
+      <c r="G65" t="s">
+        <v>185</v>
+      </c>
+      <c r="H65" t="s">
         <v>188</v>
       </c>
-      <c r="B65" t="s">
-        <v>142</v>
-      </c>
-      <c r="C65" t="s">
-        <v>180</v>
-      </c>
-      <c r="D65" t="s">
-        <v>69</v>
-      </c>
-      <c r="E65" t="s">
-        <v>17</v>
-      </c>
-      <c r="F65" t="s">
-        <v>105</v>
-      </c>
-      <c r="G65" t="s">
-        <v>189</v>
-      </c>
-      <c r="H65" t="s">
-        <v>190</v>
-      </c>
       <c r="I65" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B66" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C66" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="D66" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E66" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F66" t="s">
         <v>105</v>
       </c>
-      <c r="G66"/>
+      <c r="G66" t="s">
+        <v>185</v>
+      </c>
       <c r="H66" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I66" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B67" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C67" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="D67" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E67" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F67" t="s">
         <v>105</v>
       </c>
-      <c r="G67"/>
+      <c r="G67" t="s">
+        <v>193</v>
+      </c>
       <c r="H67" t="s">
         <v>194</v>
       </c>
       <c r="I67" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68">
@@ -3933,13 +3874,13 @@
         <v>195</v>
       </c>
       <c r="B68" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C68" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D68" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E68" t="s">
         <v>13</v>
@@ -3947,12 +3888,14 @@
       <c r="F68" t="s">
         <v>105</v>
       </c>
-      <c r="G68"/>
+      <c r="G68" t="s">
+        <v>196</v>
+      </c>
       <c r="H68" t="s">
         <v>197</v>
       </c>
       <c r="I68" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
@@ -3960,69 +3903,69 @@
         <v>198</v>
       </c>
       <c r="B69" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C69" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D69" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E69" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F69" t="s">
         <v>105</v>
       </c>
-      <c r="G69"/>
+      <c r="G69" t="s">
+        <v>199</v>
+      </c>
       <c r="H69" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="I69" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B70" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C70" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D70" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E70" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F70" t="s">
         <v>105</v>
       </c>
-      <c r="G70" t="s">
-        <v>200</v>
-      </c>
+      <c r="G70"/>
       <c r="H70" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I70" t="s">
-        <v>20</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B71" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C71" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D71" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E71" t="s">
         <v>17</v>
@@ -4030,67 +3973,63 @@
       <c r="F71" t="s">
         <v>105</v>
       </c>
-      <c r="G71" t="s">
-        <v>122</v>
-      </c>
+      <c r="G71"/>
       <c r="H71" t="s">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="I71" t="s">
-        <v>203</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B72" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C72" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="D72" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F72" t="s">
         <v>105</v>
       </c>
-      <c r="G72" t="s">
-        <v>200</v>
-      </c>
+      <c r="G72"/>
       <c r="H72" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="I72" t="s">
-        <v>20</v>
+        <v>208</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="C73" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D73" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E73" t="s">
-        <v>13</v>
-      </c>
-      <c r="F73"/>
-      <c r="G73" t="s">
-        <v>207</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F73" t="s">
+        <v>105</v>
+      </c>
+      <c r="G73"/>
       <c r="H73" t="s">
-        <v>208</v>
+        <v>143</v>
       </c>
       <c r="I73" t="s">
         <v>15</v>
@@ -4098,29 +4037,29 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="C74" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D74" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E74" t="s">
-        <v>17</v>
-      </c>
-      <c r="F74"/>
-      <c r="G74" t="s">
-        <v>210</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F74" t="s">
+        <v>105</v>
+      </c>
+      <c r="G74"/>
       <c r="H74" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I74" t="s">
-        <v>15</v>
+        <v>208</v>
       </c>
     </row>
     <row r="75">
@@ -4128,18 +4067,20 @@
         <v>212</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="C75" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D75" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E75" t="s">
         <v>13</v>
       </c>
-      <c r="F75"/>
+      <c r="F75" t="s">
+        <v>105</v>
+      </c>
       <c r="G75" t="s">
         <v>213</v>
       </c>
@@ -4147,7 +4088,7 @@
         <v>214</v>
       </c>
       <c r="I75" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76">
@@ -4155,77 +4096,81 @@
         <v>215</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="C76" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D76" t="s">
+        <v>71</v>
+      </c>
+      <c r="E76" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" t="s">
+        <v>105</v>
+      </c>
+      <c r="G76" t="s">
         <v>216</v>
       </c>
-      <c r="E76" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76"/>
-      <c r="G76" t="s">
-        <v>25</v>
-      </c>
       <c r="H76" t="s">
-        <v>217</v>
+        <v>86</v>
       </c>
       <c r="I76" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="C77" t="s">
-        <v>206</v>
+        <v>153</v>
       </c>
       <c r="D77" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E77" t="s">
-        <v>24</v>
-      </c>
-      <c r="F77"/>
+        <v>13</v>
+      </c>
+      <c r="F77" t="s">
+        <v>105</v>
+      </c>
       <c r="G77" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H77" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I77" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B78" t="s">
         <v>10</v>
       </c>
       <c r="C78" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D78" t="s">
         <v>12</v>
       </c>
       <c r="E78" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F78"/>
       <c r="G78" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H78" t="s">
-        <v>224</v>
+        <v>131</v>
       </c>
       <c r="I78" t="s">
         <v>20</v>
@@ -4233,10 +4178,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C79" t="s">
         <v>222</v>
@@ -4245,72 +4190,68 @@
         <v>12</v>
       </c>
       <c r="E79" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F79"/>
       <c r="G79" t="s">
-        <v>226</v>
+        <v>143</v>
       </c>
       <c r="H79" t="s">
-        <v>227</v>
+        <v>131</v>
       </c>
       <c r="I79" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B80" t="s">
         <v>34</v>
       </c>
       <c r="C80" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D80" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E80" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" t="s">
-        <v>230</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F80"/>
       <c r="G80" t="s">
-        <v>231</v>
+        <v>29</v>
       </c>
       <c r="H80" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I80" t="s">
-        <v>233</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B81" t="s">
         <v>34</v>
       </c>
       <c r="C81" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D81" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>17</v>
-      </c>
-      <c r="F81" t="s">
-        <v>230</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F81"/>
       <c r="G81" t="s">
-        <v>235</v>
+        <v>18</v>
       </c>
       <c r="H81" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="I81" t="s">
         <v>15</v>
@@ -4318,28 +4259,26 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B82" t="s">
         <v>34</v>
       </c>
       <c r="C82" t="s">
+        <v>222</v>
+      </c>
+      <c r="D82" t="s">
+        <v>228</v>
+      </c>
+      <c r="E82" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82"/>
+      <c r="G82" t="s">
+        <v>25</v>
+      </c>
+      <c r="H82" t="s">
         <v>229</v>
-      </c>
-      <c r="D82" t="s">
-        <v>69</v>
-      </c>
-      <c r="E82" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82" t="s">
-        <v>230</v>
-      </c>
-      <c r="G82" t="s">
-        <v>238</v>
-      </c>
-      <c r="H82" t="s">
-        <v>239</v>
       </c>
       <c r="I82" t="s">
         <v>15</v>
@@ -4347,84 +4286,80 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B83" t="s">
         <v>34</v>
       </c>
       <c r="C83" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D83" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E83" t="s">
-        <v>17</v>
-      </c>
-      <c r="F83" t="s">
-        <v>230</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F83"/>
       <c r="G83" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="H83" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="I83" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C84" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D84" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E84" t="s">
-        <v>24</v>
-      </c>
-      <c r="F84" t="s">
-        <v>230</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F84"/>
       <c r="G84" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="H84" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="I84" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B85" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="C85" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="D85" t="s">
         <v>12</v>
       </c>
       <c r="E85" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F85"/>
       <c r="G85" t="s">
-        <v>183</v>
+        <v>36</v>
       </c>
       <c r="H85" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="I85" t="s">
         <v>20</v>
@@ -4432,55 +4367,57 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B86" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="C86" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="D86" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E86" t="s">
         <v>13</v>
       </c>
-      <c r="F86"/>
+      <c r="F86" t="s">
+        <v>239</v>
+      </c>
       <c r="G86" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="H86" t="s">
-        <v>101</v>
+        <v>241</v>
       </c>
       <c r="I86" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B87" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C87" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="D87" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E87" t="s">
         <v>17</v>
       </c>
       <c r="F87" t="s">
-        <v>159</v>
+        <v>239</v>
       </c>
       <c r="G87" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="H87" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="I87" t="s">
         <v>15</v>
@@ -4488,28 +4425,28 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B88" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C88" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="D88" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E88" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F88" t="s">
-        <v>159</v>
+        <v>239</v>
       </c>
       <c r="G88" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H88" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="I88" t="s">
         <v>15</v>
@@ -4517,140 +4454,140 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B89" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C89" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="D89" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E89" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F89" t="s">
-        <v>159</v>
+        <v>239</v>
       </c>
       <c r="G89" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H89" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I89" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C90" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="D90" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E90" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F90" t="s">
-        <v>159</v>
+        <v>239</v>
       </c>
       <c r="G90" t="s">
-        <v>258</v>
-      </c>
-      <c r="H90"/>
+        <v>199</v>
+      </c>
+      <c r="H90" t="s">
+        <v>253</v>
+      </c>
       <c r="I90" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B91" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="C91" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D91" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E91" t="s">
         <v>13</v>
       </c>
-      <c r="F91" t="s">
-        <v>159</v>
-      </c>
+      <c r="F91"/>
       <c r="G91" t="s">
-        <v>258</v>
-      </c>
-      <c r="H91"/>
+        <v>193</v>
+      </c>
+      <c r="H91" t="s">
+        <v>256</v>
+      </c>
       <c r="I91" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B92" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="C92" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D92" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E92" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" t="s">
-        <v>159</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F92"/>
       <c r="G92" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="H92" t="s">
-        <v>262</v>
+        <v>101</v>
       </c>
       <c r="I92" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B93" t="s">
         <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="D93" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E93" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F93" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="G93" t="s">
         <v>261</v>
       </c>
       <c r="H93" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="I93" t="s">
         <v>15</v>
@@ -4658,28 +4595,28 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B94" t="s">
         <v>10</v>
       </c>
       <c r="C94" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="D94" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E94" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F94" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="G94" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H94" t="s">
-        <v>19</v>
+        <v>226</v>
       </c>
       <c r="I94" t="s">
         <v>15</v>
@@ -4687,26 +4624,28 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B95" t="s">
         <v>10</v>
       </c>
       <c r="C95" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D95" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E95" t="s">
-        <v>17</v>
-      </c>
-      <c r="F95"/>
+        <v>24</v>
+      </c>
+      <c r="F95" t="s">
+        <v>169</v>
+      </c>
       <c r="G95" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="H95" t="s">
-        <v>269</v>
+        <v>226</v>
       </c>
       <c r="I95" t="s">
         <v>15</v>
@@ -4714,80 +4653,82 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B96" t="s">
         <v>10</v>
       </c>
       <c r="C96" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D96" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E96" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96"/>
+        <v>17</v>
+      </c>
+      <c r="F96" t="s">
+        <v>169</v>
+      </c>
       <c r="G96" t="s">
-        <v>265</v>
-      </c>
-      <c r="H96" t="s">
-        <v>271</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H96"/>
       <c r="I96" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B97" t="s">
         <v>10</v>
       </c>
       <c r="C97" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D97" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E97" t="s">
         <v>13</v>
       </c>
-      <c r="F97"/>
+      <c r="F97" t="s">
+        <v>169</v>
+      </c>
       <c r="G97" t="s">
-        <v>265</v>
-      </c>
-      <c r="H97" t="s">
-        <v>271</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H97"/>
       <c r="I97" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B98" t="s">
         <v>10</v>
       </c>
       <c r="C98" t="s">
+        <v>260</v>
+      </c>
+      <c r="D98" t="s">
+        <v>71</v>
+      </c>
+      <c r="E98" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" t="s">
+        <v>169</v>
+      </c>
+      <c r="G98" t="s">
+        <v>117</v>
+      </c>
+      <c r="H98" t="s">
         <v>267</v>
-      </c>
-      <c r="D98" t="s">
-        <v>12</v>
-      </c>
-      <c r="E98" t="s">
-        <v>24</v>
-      </c>
-      <c r="F98"/>
-      <c r="G98" t="s">
-        <v>268</v>
-      </c>
-      <c r="H98" t="s">
-        <v>269</v>
       </c>
       <c r="I98" t="s">
         <v>15</v>
@@ -4795,107 +4736,111 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B99" t="s">
         <v>10</v>
       </c>
       <c r="C99" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="D99" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E99" t="s">
-        <v>24</v>
-      </c>
-      <c r="F99"/>
+        <v>13</v>
+      </c>
+      <c r="F99" t="s">
+        <v>169</v>
+      </c>
       <c r="G99" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
       <c r="H99" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="I99" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B100" t="s">
         <v>10</v>
       </c>
       <c r="C100" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="D100" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E100" t="s">
-        <v>24</v>
-      </c>
-      <c r="F100"/>
+        <v>17</v>
+      </c>
+      <c r="F100" t="s">
+        <v>169</v>
+      </c>
       <c r="G100" t="s">
-        <v>113</v>
+        <v>270</v>
       </c>
       <c r="H100" t="s">
-        <v>278</v>
+        <v>19</v>
       </c>
       <c r="I100" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B101" t="s">
         <v>10</v>
       </c>
       <c r="C101" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D101" t="s">
         <v>12</v>
       </c>
       <c r="E101" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F101"/>
       <c r="G101" t="s">
-        <v>280</v>
+        <v>25</v>
       </c>
       <c r="H101" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="I101" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B102" t="s">
         <v>10</v>
       </c>
       <c r="C102" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D102" t="s">
         <v>12</v>
       </c>
       <c r="E102" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F102"/>
       <c r="G102" t="s">
-        <v>163</v>
+        <v>270</v>
       </c>
       <c r="H102" t="s">
-        <v>283</v>
+        <v>26</v>
       </c>
       <c r="I102" t="s">
         <v>15</v>
@@ -4903,13 +4848,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B103" t="s">
         <v>10</v>
       </c>
       <c r="C103" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D103" t="s">
         <v>12</v>
@@ -4919,172 +4864,172 @@
       </c>
       <c r="F103"/>
       <c r="G103" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="H103" t="s">
-        <v>286</v>
+        <v>26</v>
       </c>
       <c r="I103" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="B104" t="s">
         <v>10</v>
       </c>
       <c r="C104" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D104" t="s">
         <v>12</v>
       </c>
       <c r="E104" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F104"/>
       <c r="G104" t="s">
-        <v>288</v>
+        <v>25</v>
       </c>
       <c r="H104" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="I104" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="B105" t="s">
         <v>10</v>
       </c>
       <c r="C105" t="s">
-        <v>275</v>
+        <v>219</v>
       </c>
       <c r="D105" t="s">
         <v>12</v>
       </c>
       <c r="E105" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F105"/>
       <c r="G105" t="s">
-        <v>291</v>
+        <v>173</v>
       </c>
       <c r="H105" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="I105" t="s">
-        <v>20</v>
+        <v>208</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="B106" t="s">
         <v>10</v>
       </c>
       <c r="C106" t="s">
-        <v>275</v>
+        <v>219</v>
       </c>
       <c r="D106" t="s">
         <v>12</v>
       </c>
       <c r="E106" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F106"/>
       <c r="G106" t="s">
-        <v>294</v>
+        <v>113</v>
       </c>
       <c r="H106" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="I106" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="B107" t="s">
         <v>10</v>
       </c>
       <c r="C107" t="s">
-        <v>275</v>
+        <v>219</v>
       </c>
       <c r="D107" t="s">
         <v>12</v>
       </c>
       <c r="E107" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F107"/>
       <c r="G107" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="H107" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="I107" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="B108" t="s">
         <v>10</v>
       </c>
       <c r="C108" t="s">
-        <v>275</v>
+        <v>219</v>
       </c>
       <c r="D108" t="s">
         <v>12</v>
       </c>
       <c r="E108" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F108"/>
       <c r="G108" t="s">
-        <v>297</v>
+        <v>224</v>
       </c>
       <c r="H108" t="s">
-        <v>298</v>
+        <v>178</v>
       </c>
       <c r="I108" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="B109" t="s">
         <v>10</v>
       </c>
       <c r="C109" t="s">
-        <v>301</v>
+        <v>219</v>
       </c>
       <c r="D109" t="s">
         <v>12</v>
       </c>
       <c r="E109" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F109"/>
       <c r="G109" t="s">
-        <v>268</v>
+        <v>173</v>
       </c>
       <c r="H109" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="I109" t="s">
         <v>15</v>
@@ -5092,13 +5037,13 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="B110" t="s">
         <v>10</v>
       </c>
       <c r="C110" t="s">
-        <v>301</v>
+        <v>219</v>
       </c>
       <c r="D110" t="s">
         <v>12</v>
@@ -5108,24 +5053,24 @@
       </c>
       <c r="F110"/>
       <c r="G110" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="H110" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I110" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="B111" t="s">
         <v>10</v>
       </c>
       <c r="C111" t="s">
-        <v>301</v>
+        <v>219</v>
       </c>
       <c r="D111" t="s">
         <v>12</v>
@@ -5135,78 +5080,78 @@
       </c>
       <c r="F111"/>
       <c r="G111" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="H111" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="I111" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="B112" t="s">
         <v>10</v>
       </c>
       <c r="C112" t="s">
-        <v>301</v>
+        <v>219</v>
       </c>
       <c r="D112" t="s">
         <v>12</v>
       </c>
       <c r="E112" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F112"/>
       <c r="G112" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H112" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="I112" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B113" t="s">
         <v>10</v>
       </c>
       <c r="C113" t="s">
-        <v>301</v>
+        <v>219</v>
       </c>
       <c r="D113" t="s">
         <v>12</v>
       </c>
       <c r="E113" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F113"/>
       <c r="G113" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="H113" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="I113" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B114" t="s">
         <v>10</v>
       </c>
       <c r="C114" t="s">
-        <v>301</v>
+        <v>219</v>
       </c>
       <c r="D114" t="s">
         <v>12</v>
@@ -5216,78 +5161,78 @@
       </c>
       <c r="F114"/>
       <c r="G114" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="H114" t="s">
-        <v>269</v>
+        <v>93</v>
       </c>
       <c r="I114" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B115" t="s">
         <v>10</v>
       </c>
       <c r="C115" t="s">
-        <v>309</v>
+        <v>219</v>
       </c>
       <c r="D115" t="s">
         <v>12</v>
       </c>
       <c r="E115" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F115"/>
       <c r="G115" t="s">
-        <v>83</v>
+        <v>299</v>
       </c>
       <c r="H115" t="s">
-        <v>310</v>
+        <v>93</v>
       </c>
       <c r="I115" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B116" t="s">
         <v>10</v>
       </c>
       <c r="C116" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D116" t="s">
         <v>12</v>
       </c>
       <c r="E116" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F116"/>
       <c r="G116" t="s">
-        <v>312</v>
+        <v>25</v>
       </c>
       <c r="H116" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="I116" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B117" t="s">
         <v>10</v>
       </c>
       <c r="C117" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D117" t="s">
         <v>12</v>
@@ -5297,37 +5242,37 @@
       </c>
       <c r="F117"/>
       <c r="G117" t="s">
-        <v>314</v>
+        <v>25</v>
       </c>
       <c r="H117" t="s">
-        <v>315</v>
+        <v>273</v>
       </c>
       <c r="I117" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="B118" t="s">
         <v>10</v>
       </c>
       <c r="C118" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D118" t="s">
         <v>12</v>
       </c>
       <c r="E118" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F118"/>
       <c r="G118" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="H118" t="s">
-        <v>317</v>
+        <v>273</v>
       </c>
       <c r="I118" t="s">
         <v>15</v>
@@ -5335,13 +5280,13 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="B119" t="s">
         <v>10</v>
       </c>
       <c r="C119" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="D119" t="s">
         <v>12</v>
@@ -5351,10 +5296,10 @@
       </c>
       <c r="F119"/>
       <c r="G119" t="s">
-        <v>268</v>
+        <v>25</v>
       </c>
       <c r="H119" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="I119" t="s">
         <v>15</v>
@@ -5362,26 +5307,26 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="B120" t="s">
         <v>10</v>
       </c>
       <c r="C120" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="D120" t="s">
         <v>12</v>
       </c>
       <c r="E120" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F120"/>
       <c r="G120" t="s">
-        <v>268</v>
+        <v>25</v>
       </c>
       <c r="H120" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="I120" t="s">
         <v>15</v>
@@ -5389,13 +5334,13 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="B121" t="s">
         <v>10</v>
       </c>
       <c r="C121" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="D121" t="s">
         <v>12</v>
@@ -5405,10 +5350,10 @@
       </c>
       <c r="F121"/>
       <c r="G121" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="H121" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="I121" t="s">
         <v>15</v>
@@ -5416,13 +5361,13 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B122" t="s">
         <v>10</v>
       </c>
       <c r="C122" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D122" t="s">
         <v>12</v>
@@ -5432,97 +5377,91 @@
       </c>
       <c r="F122"/>
       <c r="G122" t="s">
-        <v>307</v>
+        <v>86</v>
       </c>
       <c r="H122" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="I122" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="B123" t="s">
         <v>10</v>
       </c>
       <c r="C123" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="D123" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E123" t="s">
-        <v>13</v>
-      </c>
-      <c r="F123" t="s">
-        <v>70</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F123"/>
       <c r="G123" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="H123" t="s">
-        <v>327</v>
+        <v>93</v>
       </c>
       <c r="I123" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B124" t="s">
         <v>10</v>
       </c>
       <c r="C124" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="D124" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E124" t="s">
-        <v>24</v>
-      </c>
-      <c r="F124" t="s">
-        <v>70</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F124"/>
       <c r="G124" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="H124" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="I124" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B125" t="s">
         <v>10</v>
       </c>
       <c r="C125" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="D125" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E125" t="s">
-        <v>24</v>
-      </c>
-      <c r="F125" t="s">
-        <v>70</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F125"/>
       <c r="G125" t="s">
-        <v>329</v>
+        <v>165</v>
       </c>
       <c r="H125" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="I125" t="s">
         <v>15</v>
@@ -5530,57 +5469,53 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="B126" t="s">
         <v>10</v>
       </c>
       <c r="C126" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="D126" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E126" t="s">
-        <v>13</v>
-      </c>
-      <c r="F126" t="s">
-        <v>70</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F126"/>
       <c r="G126" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="H126" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="I126" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="B127" t="s">
         <v>10</v>
       </c>
       <c r="C127" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D127" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E127" t="s">
-        <v>17</v>
-      </c>
-      <c r="F127" t="s">
-        <v>70</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F127"/>
       <c r="G127" t="s">
-        <v>329</v>
+        <v>25</v>
       </c>
       <c r="H127" t="s">
-        <v>330</v>
+        <v>273</v>
       </c>
       <c r="I127" t="s">
         <v>15</v>
@@ -5588,28 +5523,26 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B128" t="s">
         <v>10</v>
       </c>
       <c r="C128" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D128" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E128" t="s">
         <v>13</v>
       </c>
-      <c r="F128" t="s">
-        <v>70</v>
-      </c>
+      <c r="F128"/>
       <c r="G128" t="s">
-        <v>336</v>
+        <v>25</v>
       </c>
       <c r="H128" t="s">
-        <v>337</v>
+        <v>273</v>
       </c>
       <c r="I128" t="s">
         <v>15</v>
@@ -5617,161 +5550,169 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="B129" t="s">
         <v>10</v>
       </c>
       <c r="C129" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D129" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>17</v>
-      </c>
-      <c r="F129" t="s">
-        <v>70</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F129"/>
       <c r="G129" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="H129" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I129" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="B130" t="s">
         <v>10</v>
       </c>
       <c r="C130" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D130" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E130" t="s">
         <v>17</v>
       </c>
-      <c r="F130" t="s">
-        <v>70</v>
-      </c>
+      <c r="F130"/>
       <c r="G130" t="s">
-        <v>83</v>
+        <v>308</v>
       </c>
       <c r="H130" t="s">
-        <v>276</v>
+        <v>326</v>
       </c>
       <c r="I130" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="B131" t="s">
         <v>10</v>
       </c>
       <c r="C131" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D131" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E131" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F131" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G131" t="s">
-        <v>83</v>
+        <v>329</v>
       </c>
       <c r="H131" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="I131" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="B132" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C132" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="D132" t="s">
-        <v>344</v>
+        <v>71</v>
       </c>
       <c r="E132" t="s">
-        <v>13</v>
-      </c>
-      <c r="F132"/>
+        <v>24</v>
+      </c>
+      <c r="F132" t="s">
+        <v>72</v>
+      </c>
       <c r="G132" t="s">
-        <v>345</v>
-      </c>
-      <c r="H132"/>
-      <c r="I132"/>
+        <v>110</v>
+      </c>
+      <c r="H132" t="s">
+        <v>332</v>
+      </c>
+      <c r="I132" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="B133" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C133" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="D133" t="s">
-        <v>344</v>
+        <v>71</v>
       </c>
       <c r="E133" t="s">
-        <v>13</v>
-      </c>
-      <c r="F133"/>
+        <v>24</v>
+      </c>
+      <c r="F133" t="s">
+        <v>72</v>
+      </c>
       <c r="G133" t="s">
-        <v>345</v>
+        <v>110</v>
       </c>
       <c r="H133" t="s">
-        <v>345</v>
-      </c>
-      <c r="I133"/>
+        <v>334</v>
+      </c>
+      <c r="I133" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="B134" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C134" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="D134" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E134" t="s">
-        <v>24</v>
-      </c>
-      <c r="F134"/>
+        <v>13</v>
+      </c>
+      <c r="F134" t="s">
+        <v>72</v>
+      </c>
       <c r="G134" t="s">
-        <v>348</v>
+        <v>110</v>
       </c>
       <c r="H134" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="I134" t="s">
         <v>15</v>
@@ -5779,57 +5720,57 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="B135" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C135" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="D135" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E135" t="s">
         <v>17</v>
       </c>
       <c r="F135" t="s">
-        <v>352</v>
+        <v>72</v>
       </c>
       <c r="G135" t="s">
-        <v>353</v>
+        <v>110</v>
       </c>
       <c r="H135" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="I135" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="B136" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C136" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="D136" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E136" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F136" t="s">
-        <v>352</v>
+        <v>72</v>
       </c>
       <c r="G136" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="H136" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="I136" t="s">
         <v>15</v>
@@ -5837,202 +5778,188 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="B137" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C137" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="D137" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E137" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F137" t="s">
-        <v>352</v>
+        <v>72</v>
       </c>
       <c r="G137" t="s">
-        <v>353</v>
+        <v>86</v>
       </c>
       <c r="H137" t="s">
-        <v>359</v>
+        <v>278</v>
       </c>
       <c r="I137" t="s">
-        <v>15</v>
+        <v>341</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="B138" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C138" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="D138" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E138" t="s">
         <v>17</v>
       </c>
       <c r="F138" t="s">
-        <v>352</v>
+        <v>72</v>
       </c>
       <c r="G138" t="s">
-        <v>353</v>
+        <v>86</v>
       </c>
       <c r="H138" t="s">
-        <v>361</v>
+        <v>278</v>
       </c>
       <c r="I138" t="s">
-        <v>15</v>
+        <v>341</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="B139" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C139" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="D139" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E139" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F139" t="s">
-        <v>352</v>
+        <v>72</v>
       </c>
       <c r="G139" t="s">
-        <v>363</v>
+        <v>86</v>
       </c>
       <c r="H139" t="s">
-        <v>289</v>
+        <v>344</v>
       </c>
       <c r="I139" t="s">
-        <v>15</v>
+        <v>208</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="B140" t="s">
         <v>34</v>
       </c>
       <c r="C140" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D140" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E140" t="s">
-        <v>13</v>
-      </c>
-      <c r="F140" t="s">
-        <v>352</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F140"/>
       <c r="G140" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="H140" t="s">
-        <v>289</v>
+        <v>347</v>
       </c>
       <c r="I140" t="s">
-        <v>15</v>
+        <v>341</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B141" t="s">
         <v>34</v>
       </c>
       <c r="C141" t="s">
+        <v>349</v>
+      </c>
+      <c r="D141" t="s">
+        <v>350</v>
+      </c>
+      <c r="E141" t="s">
+        <v>13</v>
+      </c>
+      <c r="F141"/>
+      <c r="G141" t="s">
         <v>351</v>
       </c>
-      <c r="D141" t="s">
-        <v>69</v>
-      </c>
-      <c r="E141" t="s">
-        <v>13</v>
-      </c>
-      <c r="F141" t="s">
-        <v>352</v>
-      </c>
-      <c r="G141" t="s">
-        <v>366</v>
-      </c>
-      <c r="H141" t="s">
-        <v>367</v>
-      </c>
-      <c r="I141" t="s">
-        <v>15</v>
-      </c>
+      <c r="H141"/>
+      <c r="I141"/>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="B142" t="s">
         <v>34</v>
       </c>
       <c r="C142" t="s">
+        <v>349</v>
+      </c>
+      <c r="D142" t="s">
+        <v>350</v>
+      </c>
+      <c r="E142" t="s">
+        <v>13</v>
+      </c>
+      <c r="F142"/>
+      <c r="G142" t="s">
         <v>351</v>
       </c>
-      <c r="D142" t="s">
-        <v>69</v>
-      </c>
-      <c r="E142" t="s">
-        <v>13</v>
-      </c>
-      <c r="F142" t="s">
-        <v>352</v>
-      </c>
-      <c r="G142" t="s">
-        <v>369</v>
-      </c>
       <c r="H142" t="s">
-        <v>370</v>
-      </c>
-      <c r="I142" t="s">
-        <v>15</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="I142"/>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="B143" t="s">
         <v>34</v>
       </c>
       <c r="C143" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D143" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E143" t="s">
-        <v>13</v>
-      </c>
-      <c r="F143" t="s">
-        <v>352</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F143"/>
       <c r="G143" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="H143" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="I143" t="s">
         <v>15</v>
@@ -6040,57 +5967,57 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="B144" t="s">
         <v>34</v>
       </c>
       <c r="C144" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="D144" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E144" t="s">
         <v>17</v>
       </c>
       <c r="F144" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="G144" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="H144" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="I144" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="B145" t="s">
         <v>34</v>
       </c>
       <c r="C145" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="D145" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E145" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F145" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="G145" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="H145" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="I145" t="s">
         <v>15</v>
@@ -6098,26 +6025,28 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="B146" t="s">
         <v>34</v>
       </c>
       <c r="C146" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="D146" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E146" t="s">
-        <v>13</v>
-      </c>
-      <c r="F146"/>
+        <v>24</v>
+      </c>
+      <c r="F146" t="s">
+        <v>358</v>
+      </c>
       <c r="G146" t="s">
-        <v>197</v>
+        <v>359</v>
       </c>
       <c r="H146" t="s">
-        <v>140</v>
+        <v>365</v>
       </c>
       <c r="I146" t="s">
         <v>15</v>
@@ -6125,26 +6054,28 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="B147" t="s">
         <v>34</v>
       </c>
       <c r="C147" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="D147" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E147" t="s">
-        <v>13</v>
-      </c>
-      <c r="F147"/>
+        <v>17</v>
+      </c>
+      <c r="F147" t="s">
+        <v>358</v>
+      </c>
       <c r="G147" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="H147" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="I147" t="s">
         <v>15</v>
@@ -6152,26 +6083,28 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="B148" t="s">
         <v>34</v>
       </c>
       <c r="C148" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="D148" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E148" t="s">
-        <v>17</v>
-      </c>
-      <c r="F148"/>
+        <v>24</v>
+      </c>
+      <c r="F148" t="s">
+        <v>358</v>
+      </c>
       <c r="G148" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="H148" t="s">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="I148" t="s">
         <v>15</v>
@@ -6179,26 +6112,28 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="B149" t="s">
         <v>34</v>
       </c>
       <c r="C149" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="D149" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E149" t="s">
-        <v>17</v>
-      </c>
-      <c r="F149"/>
+        <v>13</v>
+      </c>
+      <c r="F149" t="s">
+        <v>358</v>
+      </c>
       <c r="G149" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="H149" t="s">
-        <v>137</v>
+        <v>291</v>
       </c>
       <c r="I149" t="s">
         <v>15</v>
@@ -6206,26 +6141,28 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="B150" t="s">
         <v>34</v>
       </c>
       <c r="C150" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="D150" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E150" t="s">
-        <v>17</v>
-      </c>
-      <c r="F150"/>
+        <v>13</v>
+      </c>
+      <c r="F150" t="s">
+        <v>358</v>
+      </c>
       <c r="G150" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="H150" t="s">
-        <v>386</v>
+        <v>291</v>
       </c>
       <c r="I150" t="s">
         <v>15</v>
@@ -6233,26 +6170,28 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="B151" t="s">
         <v>34</v>
       </c>
       <c r="C151" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="D151" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E151" t="s">
-        <v>24</v>
-      </c>
-      <c r="F151"/>
+        <v>13</v>
+      </c>
+      <c r="F151" t="s">
+        <v>358</v>
+      </c>
       <c r="G151" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="H151" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="I151" t="s">
         <v>15</v>
@@ -6260,26 +6199,28 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="B152" t="s">
         <v>34</v>
       </c>
       <c r="C152" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="D152" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E152" t="s">
-        <v>24</v>
-      </c>
-      <c r="F152"/>
+        <v>13</v>
+      </c>
+      <c r="F152" t="s">
+        <v>358</v>
+      </c>
       <c r="G152" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="H152" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="I152" t="s">
         <v>15</v>
@@ -6287,26 +6228,28 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="B153" t="s">
         <v>34</v>
       </c>
       <c r="C153" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="D153" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E153" t="s">
         <v>13</v>
       </c>
-      <c r="F153"/>
+      <c r="F153" t="s">
+        <v>358</v>
+      </c>
       <c r="G153" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="H153" t="s">
-        <v>181</v>
+        <v>377</v>
       </c>
       <c r="I153" t="s">
         <v>15</v>
@@ -6314,28 +6257,28 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="B154" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C154" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="D154" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E154" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F154" t="s">
-        <v>70</v>
+        <v>358</v>
       </c>
       <c r="G154" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="H154" t="s">
-        <v>137</v>
+        <v>380</v>
       </c>
       <c r="I154" t="s">
         <v>15</v>
@@ -6343,28 +6286,28 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="B155" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C155" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="D155" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E155" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F155" t="s">
-        <v>70</v>
+        <v>358</v>
       </c>
       <c r="G155" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="H155" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="I155" t="s">
         <v>15</v>
@@ -6372,28 +6315,26 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="B156" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C156" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
       <c r="D156" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E156" t="s">
         <v>13</v>
       </c>
-      <c r="F156" t="s">
-        <v>70</v>
-      </c>
+      <c r="F156"/>
       <c r="G156" t="s">
-        <v>401</v>
+        <v>143</v>
       </c>
       <c r="H156" t="s">
-        <v>402</v>
+        <v>131</v>
       </c>
       <c r="I156" t="s">
         <v>15</v>
@@ -6401,28 +6342,26 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="B157" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C157" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
       <c r="D157" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E157" t="s">
         <v>13</v>
       </c>
-      <c r="F157" t="s">
-        <v>70</v>
-      </c>
+      <c r="F157"/>
       <c r="G157" t="s">
-        <v>401</v>
+        <v>205</v>
       </c>
       <c r="H157" t="s">
-        <v>402</v>
+        <v>147</v>
       </c>
       <c r="I157" t="s">
         <v>15</v>
@@ -6430,28 +6369,26 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="B158" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C158" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
       <c r="D158" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E158" t="s">
-        <v>13</v>
-      </c>
-      <c r="F158" t="s">
-        <v>70</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F158"/>
       <c r="G158" t="s">
-        <v>401</v>
+        <v>205</v>
       </c>
       <c r="H158" t="s">
-        <v>402</v>
+        <v>147</v>
       </c>
       <c r="I158" t="s">
         <v>15</v>
@@ -6459,28 +6396,26 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="B159" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C159" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
       <c r="D159" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E159" t="s">
         <v>17</v>
       </c>
-      <c r="F159" t="s">
-        <v>70</v>
-      </c>
+      <c r="F159"/>
       <c r="G159" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="H159" t="s">
-        <v>406</v>
+        <v>147</v>
       </c>
       <c r="I159" t="s">
         <v>15</v>
@@ -6488,28 +6423,26 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="B160" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C160" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
       <c r="D160" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E160" t="s">
-        <v>24</v>
-      </c>
-      <c r="F160" t="s">
-        <v>70</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F160"/>
       <c r="G160" t="s">
-        <v>176</v>
+        <v>389</v>
       </c>
       <c r="H160" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="I160" t="s">
         <v>15</v>
@@ -6517,28 +6450,26 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="B161" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C161" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
       <c r="D161" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E161" t="s">
         <v>24</v>
       </c>
-      <c r="F161" t="s">
-        <v>70</v>
-      </c>
+      <c r="F161"/>
       <c r="G161" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="H161" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="I161" t="s">
         <v>15</v>
@@ -6546,28 +6477,26 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="B162" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C162" t="s">
+        <v>346</v>
+      </c>
+      <c r="D162" t="s">
+        <v>12</v>
+      </c>
+      <c r="E162" t="s">
+        <v>24</v>
+      </c>
+      <c r="F162"/>
+      <c r="G162" t="s">
+        <v>395</v>
+      </c>
+      <c r="H162" t="s">
         <v>396</v>
-      </c>
-      <c r="D162" t="s">
-        <v>69</v>
-      </c>
-      <c r="E162" t="s">
-        <v>17</v>
-      </c>
-      <c r="F162" t="s">
-        <v>70</v>
-      </c>
-      <c r="G162" t="s">
-        <v>413</v>
-      </c>
-      <c r="H162" t="s">
-        <v>414</v>
       </c>
       <c r="I162" t="s">
         <v>15</v>
@@ -6575,28 +6504,26 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="B163" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C163" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
       <c r="D163" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E163" t="s">
-        <v>24</v>
-      </c>
-      <c r="F163" t="s">
-        <v>70</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F163"/>
       <c r="G163" t="s">
-        <v>55</v>
+        <v>398</v>
       </c>
       <c r="H163" t="s">
-        <v>416</v>
+        <v>191</v>
       </c>
       <c r="I163" t="s">
         <v>15</v>
@@ -6604,109 +6531,113 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="B164" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C164" t="s">
-        <v>396</v>
+        <v>137</v>
       </c>
       <c r="D164" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E164" t="s">
         <v>17</v>
       </c>
-      <c r="F164" t="s">
-        <v>70</v>
-      </c>
+      <c r="F164"/>
       <c r="G164" t="s">
-        <v>410</v>
+        <v>138</v>
       </c>
       <c r="H164" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="I164" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="B165" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="C165" t="s">
-        <v>420</v>
+        <v>190</v>
       </c>
       <c r="D165" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E165" t="s">
-        <v>13</v>
-      </c>
-      <c r="F165"/>
+        <v>24</v>
+      </c>
+      <c r="F165" t="s">
+        <v>105</v>
+      </c>
       <c r="G165" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="H165" t="s">
-        <v>349</v>
+        <v>403</v>
       </c>
       <c r="I165" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="B166" t="s">
         <v>10</v>
       </c>
       <c r="C166" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="D166" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E166" t="s">
-        <v>17</v>
-      </c>
-      <c r="F166"/>
+        <v>13</v>
+      </c>
+      <c r="F166" t="s">
+        <v>72</v>
+      </c>
       <c r="G166" t="s">
-        <v>421</v>
+        <v>205</v>
       </c>
       <c r="H166" t="s">
-        <v>349</v>
+        <v>147</v>
       </c>
       <c r="I166" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="B167" t="s">
         <v>10</v>
       </c>
       <c r="C167" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="D167" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E167" t="s">
         <v>17</v>
       </c>
-      <c r="F167"/>
+      <c r="F167" t="s">
+        <v>72</v>
+      </c>
       <c r="G167" t="s">
-        <v>47</v>
+        <v>392</v>
       </c>
       <c r="H167" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="I167" t="s">
         <v>15</v>
@@ -6714,26 +6645,28 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="B168" t="s">
         <v>10</v>
       </c>
       <c r="C168" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="D168" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E168" t="s">
         <v>13</v>
       </c>
-      <c r="F168"/>
+      <c r="F168" t="s">
+        <v>72</v>
+      </c>
       <c r="G168" t="s">
-        <v>47</v>
+        <v>389</v>
       </c>
       <c r="H168" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="I168" t="s">
         <v>15</v>
@@ -6741,26 +6674,28 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="B169" t="s">
         <v>10</v>
       </c>
       <c r="C169" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="D169" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E169" t="s">
         <v>13</v>
       </c>
-      <c r="F169"/>
+      <c r="F169" t="s">
+        <v>72</v>
+      </c>
       <c r="G169" t="s">
-        <v>47</v>
+        <v>389</v>
       </c>
       <c r="H169" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="I169" t="s">
         <v>15</v>
@@ -6768,138 +6703,144 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="B170" t="s">
         <v>10</v>
       </c>
       <c r="C170" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="D170" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E170" t="s">
-        <v>24</v>
-      </c>
-      <c r="F170"/>
+        <v>13</v>
+      </c>
+      <c r="F170" t="s">
+        <v>72</v>
+      </c>
       <c r="G170" t="s">
-        <v>145</v>
+        <v>389</v>
       </c>
       <c r="H170" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="I170" t="s">
-        <v>250</v>
+        <v>15</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="B171" t="s">
         <v>10</v>
       </c>
       <c r="C171" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="D171" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E171" t="s">
-        <v>24</v>
-      </c>
-      <c r="F171"/>
+        <v>17</v>
+      </c>
+      <c r="F171" t="s">
+        <v>72</v>
+      </c>
       <c r="G171" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="H171" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="I171" t="s">
-        <v>250</v>
+        <v>15</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="B172" t="s">
         <v>10</v>
       </c>
       <c r="C172" t="s">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="D172" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E172" t="s">
-        <v>13</v>
-      </c>
-      <c r="F172"/>
+        <v>24</v>
+      </c>
+      <c r="F172" t="s">
+        <v>72</v>
+      </c>
       <c r="G172" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="H172" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="I172" t="s">
-        <v>250</v>
+        <v>15</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="B173" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C173" t="s">
-        <v>433</v>
+        <v>405</v>
       </c>
       <c r="D173" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E173" t="s">
         <v>24</v>
       </c>
       <c r="F173" t="s">
-        <v>352</v>
+        <v>72</v>
       </c>
       <c r="G173" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="H173" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="I173" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="B174" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C174" t="s">
-        <v>433</v>
+        <v>405</v>
       </c>
       <c r="D174" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E174" t="s">
         <v>17</v>
       </c>
       <c r="F174" t="s">
-        <v>352</v>
+        <v>72</v>
       </c>
       <c r="G174" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="H174" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="I174" t="s">
         <v>15</v>
@@ -6907,28 +6848,28 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="B175" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C175" t="s">
-        <v>433</v>
+        <v>405</v>
       </c>
       <c r="D175" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E175" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F175" t="s">
-        <v>352</v>
+        <v>72</v>
       </c>
       <c r="G175" t="s">
-        <v>437</v>
+        <v>54</v>
       </c>
       <c r="H175" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="I175" t="s">
         <v>15</v>
@@ -6936,28 +6877,28 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="B176" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C176" t="s">
-        <v>433</v>
+        <v>405</v>
       </c>
       <c r="D176" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E176" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F176" t="s">
-        <v>352</v>
+        <v>72</v>
       </c>
       <c r="G176" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="H176" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="I176" t="s">
         <v>15</v>
@@ -6965,28 +6906,26 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="B177" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C177" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D177" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E177" t="s">
-        <v>13</v>
-      </c>
-      <c r="F177" t="s">
-        <v>352</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F177"/>
       <c r="G177" t="s">
-        <v>444</v>
+        <v>54</v>
       </c>
       <c r="H177" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="I177" t="s">
         <v>15</v>
@@ -6994,28 +6933,26 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="B178" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C178" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D178" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E178" t="s">
         <v>13</v>
       </c>
-      <c r="F178" t="s">
-        <v>352</v>
-      </c>
+      <c r="F178"/>
       <c r="G178" t="s">
-        <v>444</v>
+        <v>49</v>
       </c>
       <c r="H178" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="I178" t="s">
         <v>15</v>
@@ -7023,28 +6960,26 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="B179" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C179" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D179" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E179" t="s">
         <v>13</v>
       </c>
-      <c r="F179" t="s">
-        <v>352</v>
-      </c>
+      <c r="F179"/>
       <c r="G179" t="s">
-        <v>448</v>
+        <v>54</v>
       </c>
       <c r="H179" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="I179" t="s">
         <v>15</v>
@@ -7052,144 +6987,138 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="B180" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C180" t="s">
+        <v>427</v>
+      </c>
+      <c r="D180" t="s">
+        <v>12</v>
+      </c>
+      <c r="E180" t="s">
+        <v>24</v>
+      </c>
+      <c r="F180"/>
+      <c r="G180" t="s">
+        <v>31</v>
+      </c>
+      <c r="H180" t="s">
         <v>433</v>
       </c>
-      <c r="D180" t="s">
-        <v>69</v>
-      </c>
-      <c r="E180" t="s">
-        <v>13</v>
-      </c>
-      <c r="F180" t="s">
-        <v>352</v>
-      </c>
-      <c r="G180" t="s">
-        <v>451</v>
-      </c>
-      <c r="H180" t="s">
-        <v>452</v>
-      </c>
       <c r="I180" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="B181" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C181" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D181" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E181" t="s">
         <v>24</v>
       </c>
-      <c r="F181" t="s">
-        <v>352</v>
-      </c>
+      <c r="F181"/>
       <c r="G181" t="s">
-        <v>454</v>
+        <v>31</v>
       </c>
       <c r="H181" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="I181" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="B182" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C182" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D182" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E182" t="s">
-        <v>17</v>
-      </c>
-      <c r="F182" t="s">
-        <v>352</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F182"/>
       <c r="G182" t="s">
-        <v>457</v>
+        <v>134</v>
       </c>
       <c r="H182" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
       <c r="I182" t="s">
-        <v>15</v>
+        <v>438</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="B183" t="s">
         <v>34</v>
       </c>
       <c r="C183" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="D183" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E183" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F183" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="G183" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="H183" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="I183" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="B184" t="s">
         <v>34</v>
       </c>
       <c r="C184" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="D184" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E184" t="s">
         <v>17</v>
       </c>
       <c r="F184" t="s">
-        <v>159</v>
+        <v>358</v>
       </c>
       <c r="G184" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="H184" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="I184" t="s">
         <v>15</v>
@@ -7197,28 +7126,28 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="B185" t="s">
         <v>34</v>
       </c>
       <c r="C185" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="D185" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E185" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F185" t="s">
-        <v>159</v>
+        <v>358</v>
       </c>
       <c r="G185" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="H185" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="I185" t="s">
         <v>15</v>
@@ -7226,28 +7155,28 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="B186" t="s">
         <v>34</v>
       </c>
       <c r="C186" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="D186" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E186" t="s">
         <v>13</v>
       </c>
       <c r="F186" t="s">
-        <v>159</v>
+        <v>358</v>
       </c>
       <c r="G186" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="H186" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="I186" t="s">
         <v>15</v>
@@ -7255,28 +7184,28 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="B187" t="s">
         <v>34</v>
       </c>
       <c r="C187" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="D187" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E187" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F187" t="s">
-        <v>159</v>
+        <v>358</v>
       </c>
       <c r="G187" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="H187" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="I187" t="s">
         <v>15</v>
@@ -7284,28 +7213,28 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="B188" t="s">
         <v>34</v>
       </c>
       <c r="C188" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="D188" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E188" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F188" t="s">
-        <v>159</v>
+        <v>358</v>
       </c>
       <c r="G188" t="s">
-        <v>55</v>
+        <v>451</v>
       </c>
       <c r="H188" t="s">
-        <v>474</v>
+        <v>452</v>
       </c>
       <c r="I188" t="s">
         <v>15</v>
@@ -7313,28 +7242,28 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="B189" t="s">
         <v>34</v>
       </c>
       <c r="C189" t="s">
-        <v>476</v>
+        <v>440</v>
       </c>
       <c r="D189" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E189" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F189" t="s">
-        <v>159</v>
+        <v>358</v>
       </c>
       <c r="G189" t="s">
-        <v>55</v>
+        <v>455</v>
       </c>
       <c r="H189" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
       <c r="I189" t="s">
         <v>15</v>
@@ -7342,26 +7271,28 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="B190" t="s">
         <v>34</v>
       </c>
       <c r="C190" t="s">
-        <v>476</v>
+        <v>440</v>
       </c>
       <c r="D190" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E190" t="s">
         <v>13</v>
       </c>
-      <c r="F190"/>
+      <c r="F190" t="s">
+        <v>358</v>
+      </c>
       <c r="G190" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="H190" t="s">
-        <v>479</v>
+        <v>110</v>
       </c>
       <c r="I190" t="s">
         <v>15</v>
@@ -7369,26 +7300,28 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="B191" t="s">
         <v>34</v>
       </c>
       <c r="C191" t="s">
-        <v>476</v>
+        <v>440</v>
       </c>
       <c r="D191" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E191" t="s">
-        <v>17</v>
-      </c>
-      <c r="F191"/>
+        <v>24</v>
+      </c>
+      <c r="F191" t="s">
+        <v>358</v>
+      </c>
       <c r="G191" t="s">
-        <v>481</v>
+        <v>460</v>
       </c>
       <c r="H191" t="s">
-        <v>482</v>
+        <v>383</v>
       </c>
       <c r="I191" t="s">
         <v>15</v>
@@ -7396,26 +7329,28 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="B192" t="s">
         <v>34</v>
       </c>
       <c r="C192" t="s">
-        <v>476</v>
+        <v>440</v>
       </c>
       <c r="D192" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E192" t="s">
-        <v>13</v>
-      </c>
-      <c r="F192"/>
+        <v>17</v>
+      </c>
+      <c r="F192" t="s">
+        <v>358</v>
+      </c>
       <c r="G192" t="s">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="H192" t="s">
-        <v>140</v>
+        <v>463</v>
       </c>
       <c r="I192" t="s">
         <v>15</v>
@@ -7423,26 +7358,28 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="B193" t="s">
         <v>34</v>
       </c>
       <c r="C193" t="s">
-        <v>476</v>
+        <v>440</v>
       </c>
       <c r="D193" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E193" t="s">
-        <v>13</v>
-      </c>
-      <c r="F193"/>
+        <v>17</v>
+      </c>
+      <c r="F193" t="s">
+        <v>358</v>
+      </c>
       <c r="G193" t="s">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="H193" t="s">
-        <v>140</v>
+        <v>465</v>
       </c>
       <c r="I193" t="s">
         <v>15</v>
@@ -7450,26 +7387,28 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="B194" t="s">
         <v>34</v>
       </c>
       <c r="C194" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="D194" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E194" t="s">
-        <v>17</v>
-      </c>
-      <c r="F194"/>
+        <v>13</v>
+      </c>
+      <c r="F194" t="s">
+        <v>169</v>
+      </c>
       <c r="G194" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="H194" t="s">
-        <v>349</v>
+        <v>294</v>
       </c>
       <c r="I194" t="s">
         <v>15</v>
@@ -7477,26 +7416,28 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="B195" t="s">
         <v>34</v>
       </c>
       <c r="C195" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="D195" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E195" t="s">
-        <v>24</v>
-      </c>
-      <c r="F195"/>
+        <v>17</v>
+      </c>
+      <c r="F195" t="s">
+        <v>169</v>
+      </c>
       <c r="G195" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="H195" t="s">
-        <v>490</v>
+        <v>291</v>
       </c>
       <c r="I195" t="s">
         <v>15</v>
@@ -7504,26 +7445,28 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="B196" t="s">
         <v>34</v>
       </c>
       <c r="C196" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="D196" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E196" t="s">
-        <v>17</v>
-      </c>
-      <c r="F196"/>
+        <v>13</v>
+      </c>
+      <c r="F196" t="s">
+        <v>169</v>
+      </c>
       <c r="G196" t="s">
-        <v>489</v>
+        <v>468</v>
       </c>
       <c r="H196" t="s">
-        <v>490</v>
+        <v>294</v>
       </c>
       <c r="I196" t="s">
         <v>15</v>
@@ -7531,26 +7474,28 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
       <c r="B197" t="s">
         <v>34</v>
       </c>
       <c r="C197" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="D197" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E197" t="s">
-        <v>24</v>
-      </c>
-      <c r="F197"/>
+        <v>17</v>
+      </c>
+      <c r="F197" t="s">
+        <v>169</v>
+      </c>
       <c r="G197" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="H197" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="I197" t="s">
         <v>15</v>
@@ -7558,115 +7503,111 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="B198" t="s">
         <v>34</v>
       </c>
       <c r="C198" t="s">
-        <v>495</v>
+        <v>467</v>
       </c>
       <c r="D198" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E198" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F198" t="s">
-        <v>496</v>
+        <v>169</v>
       </c>
       <c r="G198" t="s">
-        <v>497</v>
+        <v>54</v>
       </c>
       <c r="H198" t="s">
-        <v>498</v>
+        <v>476</v>
       </c>
       <c r="I198" t="s">
-        <v>233</v>
+        <v>15</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>499</v>
+        <v>477</v>
       </c>
       <c r="B199" t="s">
         <v>34</v>
       </c>
       <c r="C199" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="D199" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E199" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F199" t="s">
-        <v>496</v>
+        <v>169</v>
       </c>
       <c r="G199" t="s">
-        <v>500</v>
+        <v>54</v>
       </c>
       <c r="H199" t="s">
-        <v>501</v>
+        <v>423</v>
       </c>
       <c r="I199" t="s">
-        <v>233</v>
+        <v>15</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>502</v>
+        <v>479</v>
       </c>
       <c r="B200" t="s">
         <v>34</v>
       </c>
       <c r="C200" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="D200" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E200" t="s">
-        <v>17</v>
-      </c>
-      <c r="F200" t="s">
-        <v>496</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F200"/>
       <c r="G200" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="H200" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="I200" t="s">
-        <v>233</v>
+        <v>15</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>503</v>
+        <v>481</v>
       </c>
       <c r="B201" t="s">
         <v>34</v>
       </c>
       <c r="C201" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="D201" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E201" t="s">
-        <v>13</v>
-      </c>
-      <c r="F201" t="s">
-        <v>496</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F201"/>
       <c r="G201" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="H201" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="I201" t="s">
         <v>15</v>
@@ -7674,28 +7615,26 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="B202" t="s">
         <v>34</v>
       </c>
       <c r="C202" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="D202" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E202" t="s">
         <v>13</v>
       </c>
-      <c r="F202" t="s">
-        <v>496</v>
-      </c>
+      <c r="F202"/>
       <c r="G202" t="s">
-        <v>506</v>
+        <v>484</v>
       </c>
       <c r="H202" t="s">
-        <v>504</v>
+        <v>131</v>
       </c>
       <c r="I202" t="s">
         <v>15</v>
@@ -7703,57 +7642,53 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>507</v>
+        <v>485</v>
       </c>
       <c r="B203" t="s">
         <v>34</v>
       </c>
       <c r="C203" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="D203" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E203" t="s">
-        <v>17</v>
-      </c>
-      <c r="F203" t="s">
-        <v>496</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F203"/>
       <c r="G203" t="s">
-        <v>145</v>
+        <v>484</v>
       </c>
       <c r="H203" t="s">
-        <v>508</v>
+        <v>131</v>
       </c>
       <c r="I203" t="s">
-        <v>509</v>
+        <v>15</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="B204" t="s">
         <v>34</v>
       </c>
       <c r="C204" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="D204" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E204" t="s">
-        <v>24</v>
-      </c>
-      <c r="F204" t="s">
-        <v>496</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F204"/>
       <c r="G204" t="s">
-        <v>122</v>
+        <v>487</v>
       </c>
       <c r="H204" t="s">
-        <v>511</v>
+        <v>355</v>
       </c>
       <c r="I204" t="s">
         <v>15</v>
@@ -7761,40 +7696,40 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="B205" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C205" t="s">
-        <v>513</v>
+        <v>478</v>
       </c>
       <c r="D205" t="s">
         <v>12</v>
       </c>
       <c r="E205" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F205"/>
       <c r="G205" t="s">
-        <v>514</v>
+        <v>489</v>
       </c>
       <c r="H205" t="s">
-        <v>262</v>
+        <v>390</v>
       </c>
       <c r="I205" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>515</v>
+        <v>490</v>
       </c>
       <c r="B206" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C206" t="s">
-        <v>513</v>
+        <v>478</v>
       </c>
       <c r="D206" t="s">
         <v>12</v>
@@ -7804,534 +7739,710 @@
       </c>
       <c r="F206"/>
       <c r="G206" t="s">
-        <v>516</v>
+        <v>270</v>
       </c>
       <c r="H206" t="s">
-        <v>517</v>
+        <v>491</v>
       </c>
       <c r="I206" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>518</v>
+        <v>492</v>
       </c>
       <c r="B207" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="C207" t="s">
-        <v>196</v>
+        <v>478</v>
       </c>
       <c r="D207" t="s">
-        <v>519</v>
-      </c>
-      <c r="E207"/>
-      <c r="F207" t="s">
-        <v>105</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E207" t="s">
+        <v>24</v>
+      </c>
+      <c r="F207"/>
       <c r="G207" t="s">
-        <v>520</v>
-      </c>
-      <c r="H207"/>
+        <v>493</v>
+      </c>
+      <c r="H207" t="s">
+        <v>390</v>
+      </c>
       <c r="I207" t="s">
-        <v>521</v>
+        <v>15</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>522</v>
+        <v>494</v>
       </c>
       <c r="B208" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="C208" t="s">
-        <v>143</v>
+        <v>495</v>
       </c>
       <c r="D208" t="s">
-        <v>519</v>
+        <v>71</v>
       </c>
       <c r="E208" t="s">
         <v>17</v>
       </c>
       <c r="F208" t="s">
-        <v>144</v>
+        <v>496</v>
       </c>
       <c r="G208" t="s">
-        <v>148</v>
+        <v>497</v>
       </c>
       <c r="H208" t="s">
-        <v>523</v>
+        <v>498</v>
       </c>
       <c r="I208" t="s">
-        <v>524</v>
+        <v>132</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>525</v>
+        <v>499</v>
       </c>
       <c r="B209" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="C209" t="s">
-        <v>143</v>
+        <v>495</v>
       </c>
       <c r="D209" t="s">
-        <v>519</v>
+        <v>71</v>
       </c>
       <c r="E209" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F209" t="s">
-        <v>144</v>
-      </c>
-      <c r="G209"/>
+        <v>496</v>
+      </c>
+      <c r="G209" t="s">
+        <v>497</v>
+      </c>
       <c r="H209" t="s">
-        <v>155</v>
+        <v>500</v>
       </c>
       <c r="I209" t="s">
-        <v>524</v>
+        <v>51</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>526</v>
+        <v>501</v>
       </c>
       <c r="B210" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="C210" t="s">
-        <v>143</v>
+        <v>495</v>
       </c>
       <c r="D210" t="s">
-        <v>519</v>
+        <v>71</v>
       </c>
       <c r="E210" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F210" t="s">
-        <v>144</v>
+        <v>496</v>
       </c>
       <c r="G210" t="s">
-        <v>145</v>
+        <v>497</v>
       </c>
       <c r="H210" t="s">
-        <v>527</v>
+        <v>498</v>
       </c>
       <c r="I210" t="s">
-        <v>528</v>
+        <v>132</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>529</v>
+        <v>502</v>
       </c>
       <c r="B211" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="C211" t="s">
-        <v>143</v>
+        <v>495</v>
       </c>
       <c r="D211" t="s">
-        <v>519</v>
+        <v>71</v>
       </c>
       <c r="E211" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F211" t="s">
-        <v>144</v>
-      </c>
-      <c r="G211"/>
+        <v>496</v>
+      </c>
+      <c r="G211" t="s">
+        <v>497</v>
+      </c>
       <c r="H211" t="s">
-        <v>148</v>
+        <v>500</v>
       </c>
       <c r="I211" t="s">
-        <v>530</v>
+        <v>51</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>531</v>
+        <v>503</v>
       </c>
       <c r="B212" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="C212" t="s">
-        <v>143</v>
+        <v>495</v>
       </c>
       <c r="D212" t="s">
-        <v>519</v>
+        <v>71</v>
       </c>
       <c r="E212" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F212" t="s">
-        <v>144</v>
-      </c>
-      <c r="G212"/>
+        <v>496</v>
+      </c>
+      <c r="G212" t="s">
+        <v>504</v>
+      </c>
       <c r="H212" t="s">
-        <v>122</v>
+        <v>500</v>
       </c>
       <c r="I212" t="s">
-        <v>532</v>
+        <v>15</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>533</v>
+        <v>505</v>
       </c>
       <c r="B213" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="C213" t="s">
-        <v>180</v>
+        <v>495</v>
       </c>
       <c r="D213" t="s">
-        <v>519</v>
+        <v>71</v>
       </c>
       <c r="E213" t="s">
         <v>24</v>
       </c>
       <c r="F213" t="s">
-        <v>105</v>
-      </c>
-      <c r="G213"/>
+        <v>496</v>
+      </c>
+      <c r="G213" t="s">
+        <v>134</v>
+      </c>
       <c r="H213" t="s">
-        <v>47</v>
+        <v>506</v>
       </c>
       <c r="I213" t="s">
-        <v>534</v>
+        <v>140</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>535</v>
+        <v>507</v>
       </c>
       <c r="B214" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="C214" t="s">
-        <v>180</v>
+        <v>495</v>
       </c>
       <c r="D214" t="s">
-        <v>519</v>
+        <v>71</v>
       </c>
       <c r="E214" t="s">
         <v>24</v>
       </c>
       <c r="F214" t="s">
-        <v>105</v>
-      </c>
-      <c r="G214"/>
+        <v>496</v>
+      </c>
+      <c r="G214" t="s">
+        <v>134</v>
+      </c>
       <c r="H214" t="s">
-        <v>536</v>
+        <v>508</v>
       </c>
       <c r="I214" t="s">
-        <v>537</v>
+        <v>140</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>538</v>
+        <v>509</v>
       </c>
       <c r="B215" t="s">
         <v>34</v>
       </c>
       <c r="C215" t="s">
-        <v>229</v>
+        <v>495</v>
       </c>
       <c r="D215" t="s">
-        <v>519</v>
-      </c>
-      <c r="E215"/>
+        <v>71</v>
+      </c>
+      <c r="E215" t="s">
+        <v>17</v>
+      </c>
       <c r="F215" t="s">
-        <v>230</v>
+        <v>496</v>
       </c>
       <c r="G215" t="s">
-        <v>539</v>
-      </c>
-      <c r="H215"/>
+        <v>166</v>
+      </c>
+      <c r="H215" t="s">
+        <v>510</v>
+      </c>
       <c r="I215" t="s">
-        <v>540</v>
+        <v>15</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="B216" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="C216" t="s">
-        <v>247</v>
+        <v>495</v>
       </c>
       <c r="D216" t="s">
-        <v>344</v>
+        <v>71</v>
       </c>
       <c r="E216" t="s">
-        <v>13</v>
-      </c>
-      <c r="F216"/>
+        <v>17</v>
+      </c>
+      <c r="F216" t="s">
+        <v>496</v>
+      </c>
       <c r="G216" t="s">
-        <v>345</v>
+        <v>134</v>
       </c>
       <c r="H216" t="s">
-        <v>345</v>
-      </c>
-      <c r="I216"/>
+        <v>512</v>
+      </c>
+      <c r="I216" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>542</v>
+        <v>513</v>
       </c>
       <c r="B217" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C217" t="s">
-        <v>351</v>
+        <v>514</v>
       </c>
       <c r="D217" t="s">
-        <v>519</v>
+        <v>12</v>
       </c>
       <c r="E217" t="s">
-        <v>17</v>
-      </c>
-      <c r="F217" t="s">
-        <v>352</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F217"/>
       <c r="G217" t="s">
-        <v>543</v>
+        <v>288</v>
       </c>
       <c r="H217" t="s">
-        <v>544</v>
+        <v>267</v>
       </c>
       <c r="I217" t="s">
-        <v>545</v>
+        <v>20</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>546</v>
+        <v>515</v>
       </c>
       <c r="B218" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C218" t="s">
-        <v>351</v>
+        <v>514</v>
       </c>
       <c r="D218" t="s">
-        <v>519</v>
+        <v>12</v>
       </c>
       <c r="E218" t="s">
-        <v>24</v>
-      </c>
-      <c r="F218" t="s">
-        <v>352</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F218"/>
       <c r="G218" t="s">
-        <v>547</v>
+        <v>516</v>
       </c>
       <c r="H218" t="s">
-        <v>548</v>
+        <v>67</v>
       </c>
       <c r="I218" t="s">
-        <v>549</v>
+        <v>119</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>550</v>
+        <v>517</v>
       </c>
       <c r="B219" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="C219" t="s">
-        <v>351</v>
+        <v>210</v>
       </c>
       <c r="D219" t="s">
+        <v>518</v>
+      </c>
+      <c r="E219"/>
+      <c r="F219" t="s">
+        <v>105</v>
+      </c>
+      <c r="G219" t="s">
         <v>519</v>
       </c>
-      <c r="E219" t="s">
-        <v>24</v>
-      </c>
-      <c r="F219" t="s">
-        <v>352</v>
-      </c>
-      <c r="G219" t="s">
-        <v>543</v>
-      </c>
-      <c r="H219" t="s">
-        <v>551</v>
-      </c>
+      <c r="H219"/>
       <c r="I219" t="s">
-        <v>549</v>
+        <v>520</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>552</v>
+        <v>521</v>
       </c>
       <c r="B220" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="C220" t="s">
-        <v>351</v>
+        <v>153</v>
       </c>
       <c r="D220" t="s">
-        <v>519</v>
-      </c>
-      <c r="E220"/>
+        <v>518</v>
+      </c>
+      <c r="E220" t="s">
+        <v>24</v>
+      </c>
       <c r="F220" t="s">
-        <v>352</v>
-      </c>
-      <c r="G220" t="s">
-        <v>553</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G220"/>
       <c r="H220" t="s">
-        <v>554</v>
+        <v>165</v>
       </c>
       <c r="I220" t="s">
-        <v>555</v>
+        <v>522</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>556</v>
+        <v>523</v>
       </c>
       <c r="B221" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C221" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="D221" t="s">
-        <v>519</v>
-      </c>
-      <c r="E221"/>
+        <v>518</v>
+      </c>
+      <c r="E221" t="s">
+        <v>24</v>
+      </c>
       <c r="F221" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="G221" t="s">
-        <v>557</v>
+        <v>134</v>
       </c>
       <c r="H221" t="s">
-        <v>558</v>
+        <v>93</v>
       </c>
       <c r="I221" t="s">
-        <v>559</v>
+        <v>135</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>560</v>
+        <v>524</v>
       </c>
       <c r="B222" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="C222" t="s">
-        <v>433</v>
+        <v>153</v>
       </c>
       <c r="D222" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E222" t="s">
         <v>24</v>
       </c>
       <c r="F222" t="s">
-        <v>561</v>
-      </c>
-      <c r="G222" t="s">
-        <v>562</v>
-      </c>
-      <c r="H222"/>
+        <v>154</v>
+      </c>
+      <c r="G222"/>
+      <c r="H222" t="s">
+        <v>63</v>
+      </c>
       <c r="I222" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>563</v>
+        <v>526</v>
       </c>
       <c r="B223" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="C223" t="s">
-        <v>433</v>
+        <v>153</v>
       </c>
       <c r="D223" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E223" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F223" t="s">
-        <v>352</v>
-      </c>
-      <c r="G223" t="s">
-        <v>564</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G223"/>
       <c r="H223" t="s">
-        <v>565</v>
+        <v>122</v>
       </c>
       <c r="I223" t="s">
-        <v>566</v>
+        <v>527</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>567</v>
+        <v>528</v>
       </c>
       <c r="B224" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="C224" t="s">
-        <v>495</v>
+        <v>190</v>
       </c>
       <c r="D224" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E224" t="s">
         <v>24</v>
       </c>
       <c r="F224" t="s">
-        <v>496</v>
-      </c>
-      <c r="G224" t="s">
-        <v>345</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G224"/>
       <c r="H224" t="s">
-        <v>568</v>
+        <v>49</v>
       </c>
       <c r="I224" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>569</v>
+        <v>530</v>
       </c>
       <c r="B225" t="s">
         <v>34</v>
       </c>
       <c r="C225" t="s">
-        <v>495</v>
+        <v>238</v>
       </c>
       <c r="D225" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E225"/>
       <c r="F225" t="s">
-        <v>496</v>
+        <v>239</v>
       </c>
       <c r="G225" t="s">
-        <v>345</v>
-      </c>
-      <c r="H225" t="s">
-        <v>568</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="H225"/>
       <c r="I225" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>533</v>
+      </c>
+      <c r="B226" t="s">
+        <v>152</v>
+      </c>
+      <c r="C226" t="s">
+        <v>255</v>
+      </c>
+      <c r="D226" t="s">
+        <v>350</v>
+      </c>
+      <c r="E226" t="s">
+        <v>13</v>
+      </c>
+      <c r="F226"/>
+      <c r="G226" t="s">
+        <v>351</v>
+      </c>
+      <c r="H226" t="s">
+        <v>351</v>
+      </c>
+      <c r="I226"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>534</v>
+      </c>
+      <c r="B227" t="s">
+        <v>34</v>
+      </c>
+      <c r="C227" t="s">
+        <v>357</v>
+      </c>
+      <c r="D227" t="s">
+        <v>518</v>
+      </c>
+      <c r="E227" t="s">
+        <v>17</v>
+      </c>
+      <c r="F227" t="s">
+        <v>358</v>
+      </c>
+      <c r="G227" t="s">
+        <v>535</v>
+      </c>
+      <c r="H227" t="s">
+        <v>347</v>
+      </c>
+      <c r="I227" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>537</v>
+      </c>
+      <c r="B228" t="s">
+        <v>34</v>
+      </c>
+      <c r="C228" t="s">
+        <v>357</v>
+      </c>
+      <c r="D228" t="s">
+        <v>518</v>
+      </c>
+      <c r="E228" t="s">
+        <v>24</v>
+      </c>
+      <c r="F228" t="s">
+        <v>358</v>
+      </c>
+      <c r="G228" t="s">
+        <v>538</v>
+      </c>
+      <c r="H228" t="s">
+        <v>539</v>
+      </c>
+      <c r="I228" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>541</v>
+      </c>
+      <c r="B229" t="s">
+        <v>34</v>
+      </c>
+      <c r="C229" t="s">
+        <v>357</v>
+      </c>
+      <c r="D229" t="s">
+        <v>518</v>
+      </c>
+      <c r="E229" t="s">
+        <v>24</v>
+      </c>
+      <c r="F229" t="s">
+        <v>358</v>
+      </c>
+      <c r="G229" t="s">
+        <v>535</v>
+      </c>
+      <c r="H229" t="s">
+        <v>542</v>
+      </c>
+      <c r="I229" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>543</v>
+      </c>
+      <c r="B230" t="s">
+        <v>34</v>
+      </c>
+      <c r="C230" t="s">
+        <v>440</v>
+      </c>
+      <c r="D230" t="s">
+        <v>518</v>
+      </c>
+      <c r="E230" t="s">
+        <v>24</v>
+      </c>
+      <c r="F230" t="s">
+        <v>544</v>
+      </c>
+      <c r="G230" t="s">
         <v>545</v>
+      </c>
+      <c r="H230"/>
+      <c r="I230" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>547</v>
+      </c>
+      <c r="B231" t="s">
+        <v>34</v>
+      </c>
+      <c r="C231" t="s">
+        <v>440</v>
+      </c>
+      <c r="D231" t="s">
+        <v>518</v>
+      </c>
+      <c r="E231" t="s">
+        <v>24</v>
+      </c>
+      <c r="F231" t="s">
+        <v>358</v>
+      </c>
+      <c r="G231" t="s">
+        <v>548</v>
+      </c>
+      <c r="H231" t="s">
+        <v>549</v>
+      </c>
+      <c r="I231" t="s">
+        <v>550</v>
       </c>
     </row>
   </sheetData>
